--- a/report/experiments/1d.xlsx
+++ b/report/experiments/1d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/QVO/code/xzyao/projects/index/msc-project/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3616C821-1A47-BB4D-AFFD-0F0BD787A2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C53AFCD8-3CEE-0644-80DA-3122026A4331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp1_details" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="461" uniqueCount="57">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="464" uniqueCount="60">
   <si>
     <t>Dimensions</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>2afbc27a</t>
+  </si>
+  <si>
+    <t>8c6a9a66</t>
+  </si>
+  <si>
+    <t>359ba655</t>
+  </si>
+  <si>
+    <t>14369ee4</t>
   </si>
 </sst>
 </file>
@@ -861,6 +870,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,9 +880,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -929,6 +938,1052 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>exp1_details!$J$2:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>9724.5078125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17602.921875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.2109375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12504.0078125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.609375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23008.8515625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14588.2265625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20345.578125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.9453125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12692.6171875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28943.4375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38952.2578125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.6484375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19399.03125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.8046875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.7890625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20259.15625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.9453125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.0546875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26775.906299999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.2109375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15077.320299999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18625.031299999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23218.710899999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14599.992200000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20699.984400000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24196.179700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>exp1_details!$I$2:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2.5684999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271.12150000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340943.16899999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.720499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340943.16899999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1169.819</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.288499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>339737.11800000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.672499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>136.75550000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>339737.11800000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85179.748000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>789.17349999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28050000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>299.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5295000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.892000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1459999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A80-1A4A-A202-D07EAACDF3E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1714058207"/>
+        <c:axId val="1714127247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1714058207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1714127247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1714127247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1714058207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="sq" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:bevel/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239BA8F4-F01D-5547-9152-B547BB98BB4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,7 +2286,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3299,6 +4354,7 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3306,8 +4362,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BC5439-9764-D74D-9F13-84ED2786D407}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4353,8 +5409,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5362,7 +6418,7 @@
       <c r="E44" s="28">
         <v>3</v>
       </c>
-      <c r="F44" s="34"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -5376,7 +6432,7 @@
         <v>13</v>
       </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="34"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -5390,7 +6446,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="28"/>
-      <c r="F46" s="34"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -5410,7 +6466,9 @@
       <c r="E47" s="28">
         <v>1</v>
       </c>
-      <c r="F47" s="28"/>
+      <c r="F47" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -5548,7 +6606,7 @@
       <c r="E56" s="28">
         <v>1</v>
       </c>
-      <c r="F56" s="34"/>
+      <c r="F56" s="31"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -5562,7 +6620,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="28"/>
-      <c r="F57" s="34"/>
+      <c r="F57" s="31"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -5576,7 +6634,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="28"/>
-      <c r="F58" s="34"/>
+      <c r="F58" s="31"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -5820,7 +6878,9 @@
       <c r="E74" s="28">
         <v>1</v>
       </c>
-      <c r="F74" s="30"/>
+      <c r="F74" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
@@ -5864,7 +6924,9 @@
       <c r="E77" s="29">
         <v>2</v>
       </c>
-      <c r="F77" s="28"/>
+      <c r="F77" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -5908,7 +6970,7 @@
       <c r="E80" s="28">
         <v>3</v>
       </c>
-      <c r="F80" s="31"/>
+      <c r="F80" s="32"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -5922,7 +6984,7 @@
         <v>13</v>
       </c>
       <c r="E81" s="28"/>
-      <c r="F81" s="32"/>
+      <c r="F81" s="33"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
@@ -5936,7 +6998,7 @@
         <v>11</v>
       </c>
       <c r="E82" s="28"/>
-      <c r="F82" s="33"/>
+      <c r="F82" s="34"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -5944,56 +7006,15 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="A29:A55"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F68:F70"/>
     <mergeCell ref="A56:A82"/>
     <mergeCell ref="B56:B64"/>
     <mergeCell ref="C56:C64"/>
@@ -6010,15 +7031,56 @@
     <mergeCell ref="E74:E76"/>
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="A29:A55"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report/experiments/1d.xlsx
+++ b/report/experiments/1d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/QVO/code/xzyao/projects/index/msc-project/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C53AFCD8-3CEE-0644-80DA-3122026A4331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4F69CFA7-F007-9048-A59B-CEF3B439F08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="464" uniqueCount="60">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="549" uniqueCount="75">
   <si>
     <t>Dimensions</t>
   </si>
@@ -167,64 +167,108 @@
     <t>Query Time (ms)</t>
   </si>
   <si>
-    <t>75e61813</t>
-  </si>
-  <si>
-    <t>7a24d596</t>
-  </si>
-  <si>
-    <t>2ecfabd7</t>
-  </si>
-  <si>
-    <t>49c6223d</t>
-  </si>
-  <si>
-    <t>39c253b5</t>
-  </si>
-  <si>
     <t>10,0000</t>
   </si>
   <si>
     <t>1,000,000</t>
   </si>
   <si>
-    <t>d07c23ab</t>
+    <t>1,000</t>
   </si>
   <si>
-    <t>11d3040e</t>
+    <t>ed5e4944</t>
   </si>
   <si>
-    <t>0fed2685</t>
+    <t>7cbd0b99</t>
   </si>
   <si>
-    <t>2462fe84</t>
+    <t>83a66399</t>
   </si>
   <si>
-    <t>8ca25fd1</t>
+    <t>1be6cf19</t>
   </si>
   <si>
-    <t>69c35d45</t>
+    <t>d73efd1c</t>
   </si>
   <si>
-    <t>2afbc27a</t>
+    <t>a756a7b1</t>
   </si>
   <si>
-    <t>8c6a9a66</t>
+    <t>b2857f8a</t>
   </si>
   <si>
-    <t>359ba655</t>
+    <t>eb9aa041</t>
   </si>
   <si>
-    <t>14369ee4</t>
+    <t>6fc92b4e</t>
+  </si>
+  <si>
+    <t>a472d570</t>
+  </si>
+  <si>
+    <t>2e81f7f3</t>
+  </si>
+  <si>
+    <t>9f8c17ed</t>
+  </si>
+  <si>
+    <t>c84f5bb2</t>
+  </si>
+  <si>
+    <t>62f2fbbd</t>
+  </si>
+  <si>
+    <t>50349e31</t>
+  </si>
+  <si>
+    <t>c02b36ce</t>
+  </si>
+  <si>
+    <t>742d0ff6</t>
+  </si>
+  <si>
+    <t>474541b9</t>
+  </si>
+  <si>
+    <t>ee8db2dc</t>
+  </si>
+  <si>
+    <t>0583cef0</t>
+  </si>
+  <si>
+    <t>63e56a56</t>
+  </si>
+  <si>
+    <t>901d78ea</t>
+  </si>
+  <si>
+    <t>f19a3f12</t>
+  </si>
+  <si>
+    <t>c9a0f971</t>
+  </si>
+  <si>
+    <t>aa6e9160</t>
+  </si>
+  <si>
+    <t>b699eef2</t>
+  </si>
+  <si>
+    <t>100,000</t>
+  </si>
+  <si>
+    <t>1f796db5</t>
+  </si>
+  <si>
+    <t>9462a100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -562,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <start/>
       <end/>
@@ -702,48 +746,11 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <start/>
       <end style="thin">
         <color indexed="64"/>
       </end>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -792,15 +799,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -815,9 +816,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -852,6 +850,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,17 +878,23 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2303,57 +2317,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="26">
         <v>1</v>
       </c>
       <c r="G2">
@@ -2374,18 +2388,18 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3">
         <v>815.81139799999801</v>
       </c>
@@ -2398,24 +2412,24 @@
       <c r="J3">
         <v>17602.921875</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <f>AVERAGE(I21,I12,I3)</f>
         <v>1.1341666666666665</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="26"/>
       <c r="G4">
         <v>101.848525699999</v>
       </c>
@@ -2434,18 +2448,18 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="G5">
         <v>623.8053903</v>
       </c>
@@ -2464,18 +2478,18 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6">
         <v>106.28747070000099</v>
       </c>
@@ -2494,18 +2508,18 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7">
         <v>1061.5543981000001</v>
       </c>
@@ -2524,18 +2538,18 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="26"/>
       <c r="G8">
         <v>712.01199199999905</v>
       </c>
@@ -2554,18 +2568,18 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="26"/>
       <c r="G9">
         <v>963.82935789999794</v>
       </c>
@@ -2584,18 +2598,18 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="26"/>
       <c r="G10">
         <v>110.1170094</v>
       </c>
@@ -2614,18 +2628,18 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="26">
         <v>2</v>
       </c>
       <c r="G11">
@@ -2642,18 +2656,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12">
         <v>1379.0209531999999</v>
       </c>
@@ -2668,18 +2682,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13">
         <v>1851.30138699999</v>
       </c>
@@ -2694,18 +2708,18 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14">
         <v>109.737640999999</v>
       </c>
@@ -2720,18 +2734,18 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="26"/>
       <c r="G15">
         <v>934.23514630000102</v>
       </c>
@@ -2746,18 +2760,18 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16">
         <v>108.80778999999799</v>
       </c>
@@ -2772,18 +2786,18 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="26"/>
       <c r="G17">
         <v>99.794584099999994</v>
       </c>
@@ -2798,18 +2812,18 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="26"/>
       <c r="G18">
         <v>832.76475140000105</v>
       </c>
@@ -2824,18 +2838,18 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="26"/>
       <c r="G19">
         <v>97.447959299999596</v>
       </c>
@@ -2850,18 +2864,18 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="26">
         <v>3</v>
       </c>
       <c r="G20">
@@ -2878,18 +2892,18 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="26"/>
       <c r="G21">
         <v>1229.7312300000001</v>
       </c>
@@ -2904,18 +2918,18 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22">
         <v>113.25143300000001</v>
       </c>
@@ -2930,18 +2944,18 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="26"/>
       <c r="G23">
         <v>715.97740299999998</v>
       </c>
@@ -2954,21 +2968,21 @@
       <c r="J23">
         <v>15077.320299999999</v>
       </c>
-      <c r="K23" s="11"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="26"/>
       <c r="G24">
         <v>870.01640199999997</v>
       </c>
@@ -2983,18 +2997,18 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="26"/>
       <c r="G25">
         <v>1055.8516199999999</v>
       </c>
@@ -3009,18 +3023,18 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="26"/>
       <c r="G26">
         <v>703.07148900000004</v>
       </c>
@@ -3033,21 +3047,21 @@
       <c r="J26">
         <v>14599.992200000001</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="26"/>
       <c r="G27">
         <v>842.20895099999996</v>
       </c>
@@ -3060,21 +3074,21 @@
       <c r="J27">
         <v>20699.984400000001</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="26"/>
       <c r="G28">
         <v>913.27307399999995</v>
       </c>
@@ -3087,21 +3101,21 @@
       <c r="J28">
         <v>24196.179700000001</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="26">
         <v>1</v>
       </c>
       <c r="G29">
@@ -3116,24 +3130,24 @@
       <c r="J29">
         <v>308.71875</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="9">
         <f>AVERAGE(I29,I38,I47)</f>
         <v>21211.967664165368</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="26"/>
       <c r="G30">
         <v>0.49622699999599701</v>
       </c>
@@ -3146,24 +3160,24 @@
       <c r="J30">
         <v>590.09375</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="9">
         <f t="shared" ref="K30:K37" si="1">AVERAGE(I30,I39,I48)</f>
         <v>20349.5064285976</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="26"/>
       <c r="G31">
         <v>0.57650300000386701</v>
       </c>
@@ -3176,24 +3190,24 @@
       <c r="J31">
         <v>865.6953125</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="9">
         <f t="shared" si="1"/>
         <v>18376.324499016133</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="26"/>
       <c r="G32">
         <v>0.46265810000477298</v>
       </c>
@@ -3206,24 +3220,24 @@
       <c r="J32">
         <v>306.2109375</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="9">
         <f t="shared" si="1"/>
         <v>20242.800581957603</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="26"/>
       <c r="G33">
         <v>0.95725110000057601</v>
       </c>
@@ -3236,24 +3250,24 @@
       <c r="J33">
         <v>570.359375</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="9">
         <f t="shared" si="1"/>
         <v>19328.456879389665</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="26"/>
       <c r="G34">
         <v>1.1006100999948101</v>
       </c>
@@ -3266,24 +3280,24 @@
       <c r="J34">
         <v>828.734375</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="13">
         <f t="shared" si="1"/>
         <v>17395.746546189734</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="26"/>
       <c r="G35">
         <v>0.82399119999899995</v>
       </c>
@@ -3296,24 +3310,24 @@
       <c r="J35">
         <v>313</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="9">
         <f t="shared" si="1"/>
         <v>24123.058681757535</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="25"/>
+      <c r="F36" s="26"/>
       <c r="G36">
         <v>0.61950169999909099</v>
       </c>
@@ -3326,24 +3340,24 @@
       <c r="J36">
         <v>571.6796875</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="9">
         <f t="shared" si="1"/>
         <v>23547.964973286598</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="25"/>
+      <c r="F37" s="26"/>
       <c r="G37">
         <v>0.54351080000924401</v>
       </c>
@@ -3356,24 +3370,24 @@
       <c r="J37">
         <v>824.5859375</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="9">
         <f t="shared" si="1"/>
         <v>19867.0171846923</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="26">
         <v>2</v>
       </c>
       <c r="G38">
@@ -3388,21 +3402,21 @@
       <c r="J38">
         <v>308.71875</v>
       </c>
-      <c r="K38" s="12"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="25"/>
+      <c r="F39" s="26"/>
       <c r="G39">
         <v>0.48594689999299501</v>
       </c>
@@ -3415,21 +3429,21 @@
       <c r="J39">
         <v>590.09375</v>
       </c>
-      <c r="K39" s="12"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="25"/>
+      <c r="F40" s="26"/>
       <c r="G40">
         <v>0.56573300001036797</v>
       </c>
@@ -3442,21 +3456,21 @@
       <c r="J40">
         <v>865.6953125</v>
       </c>
-      <c r="K40" s="12"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="25"/>
+      <c r="F41" s="26"/>
       <c r="G41">
         <v>0.43069809999724301</v>
       </c>
@@ -3469,21 +3483,21 @@
       <c r="J41">
         <v>306.2109375</v>
       </c>
-      <c r="K41" s="12"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="7" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="25"/>
+      <c r="F42" s="26"/>
       <c r="G42">
         <v>0.955388400005176</v>
       </c>
@@ -3496,21 +3510,21 @@
       <c r="J42">
         <v>570.359375</v>
       </c>
-      <c r="K42" s="12"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="25"/>
+      <c r="F43" s="26"/>
       <c r="G43">
         <v>1.1025935000070599</v>
       </c>
@@ -3523,21 +3537,21 @@
       <c r="J43">
         <v>828.734375</v>
       </c>
-      <c r="K43" s="12"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="25"/>
+      <c r="F44" s="26"/>
       <c r="G44">
         <v>0.82238709999364801</v>
       </c>
@@ -3552,18 +3566,18 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="25"/>
+      <c r="F45" s="26"/>
       <c r="G45">
         <v>0.66707440000027396</v>
       </c>
@@ -3578,18 +3592,18 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="25"/>
+      <c r="F46" s="26"/>
       <c r="G46">
         <v>0.56852570000046398</v>
       </c>
@@ -3604,18 +3618,18 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="26">
         <v>3</v>
       </c>
       <c r="G47">
@@ -3632,18 +3646,18 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="7" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="26"/>
       <c r="G48">
         <v>0.49440859999999998</v>
       </c>
@@ -3658,18 +3672,18 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="7" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="26"/>
       <c r="G49">
         <v>0.57769630000000005</v>
       </c>
@@ -3684,18 +3698,18 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="7" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="26"/>
       <c r="G50">
         <v>0.4187824</v>
       </c>
@@ -3710,18 +3724,18 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="7" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="26"/>
       <c r="G51">
         <v>0.48984919999999998</v>
       </c>
@@ -3736,18 +3750,18 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="7" t="s">
+      <c r="A52" s="26"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="26"/>
       <c r="G52">
         <v>0.58700799999999997</v>
       </c>
@@ -3762,18 +3776,18 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="7" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="25"/>
+      <c r="F53" s="26"/>
       <c r="G53">
         <v>0.4173924</v>
       </c>
@@ -3788,18 +3802,18 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="7" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="26"/>
       <c r="G54">
         <v>0.48682150000000002</v>
       </c>
@@ -3814,18 +3828,18 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="7" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="25"/>
+      <c r="F55" s="26"/>
       <c r="G55">
         <v>0.54707810000000001</v>
       </c>
@@ -3840,18 +3854,18 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="10" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="26">
         <v>1</v>
       </c>
       <c r="G56">
@@ -3872,18 +3886,18 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="10" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="25"/>
+      <c r="F57" s="26"/>
       <c r="G57">
         <v>341.664933100008</v>
       </c>
@@ -3896,24 +3910,24 @@
       <c r="J57">
         <v>6906.3046875</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="8">
         <f t="shared" ref="K57:K61" si="2">AVERAGE(I57,I63,I69)</f>
         <v>6975.8630981839087</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="25"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="10" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="25"/>
+      <c r="F58" s="26"/>
       <c r="G58">
         <v>90.293836500000893</v>
       </c>
@@ -3932,18 +3946,18 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="10" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="25"/>
+      <c r="F59" s="26"/>
       <c r="G59">
         <v>32.586143799999199</v>
       </c>
@@ -3962,18 +3976,18 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="10" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="25"/>
+      <c r="F60" s="26"/>
       <c r="G60">
         <v>52.603245599995702</v>
       </c>
@@ -3992,18 +4006,18 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="10" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="25"/>
+      <c r="F61" s="26"/>
       <c r="G61">
         <v>209.16580190000201</v>
       </c>
@@ -4022,18 +4036,18 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="10" t="s">
+      <c r="A62" s="26"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="26">
         <v>2</v>
       </c>
       <c r="G62">
@@ -4050,18 +4064,18 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="25"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="10" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="25"/>
+      <c r="F63" s="26"/>
       <c r="G63">
         <v>481.68006150001003</v>
       </c>
@@ -4076,18 +4090,18 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="25"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="10" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="25"/>
+      <c r="F64" s="26"/>
       <c r="G64">
         <v>69.099510700005297</v>
       </c>
@@ -4102,18 +4116,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="25"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="10" t="s">
+      <c r="A65" s="26"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="25"/>
+      <c r="F65" s="26"/>
       <c r="G65">
         <v>32.333898299999397</v>
       </c>
@@ -4128,18 +4142,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="25"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="10" t="s">
+      <c r="A66" s="26"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="25"/>
+      <c r="F66" s="26"/>
       <c r="G66">
         <v>53.788557200008597</v>
       </c>
@@ -4154,18 +4168,18 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="25"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="10" t="s">
+      <c r="A67" s="26"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="25"/>
+      <c r="F67" s="26"/>
       <c r="G67">
         <v>184.17984860000399</v>
       </c>
@@ -4180,18 +4194,18 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="25"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="10" t="s">
+      <c r="A68" s="26"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F68" s="26">
         <v>3</v>
       </c>
       <c r="G68">
@@ -4208,18 +4222,18 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="10" t="s">
+      <c r="A69" s="26"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="25"/>
+      <c r="F69" s="26"/>
       <c r="G69">
         <v>493.66117600000001</v>
       </c>
@@ -4234,18 +4248,18 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="25"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="10" t="s">
+      <c r="A70" s="26"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="25"/>
+      <c r="F70" s="26"/>
       <c r="G70">
         <v>102.186379</v>
       </c>
@@ -4260,18 +4274,18 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="25"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="10" t="s">
+      <c r="A71" s="26"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="25"/>
+      <c r="F71" s="26"/>
       <c r="G71">
         <v>35.5197681</v>
       </c>
@@ -4286,18 +4300,18 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="25"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="10" t="s">
+      <c r="A72" s="26"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F72" s="25"/>
+      <c r="F72" s="26"/>
       <c r="G72">
         <v>53.333115599999999</v>
       </c>
@@ -4312,18 +4326,18 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="25"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="10" t="s">
+      <c r="A73" s="26"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="25"/>
+      <c r="F73" s="26"/>
       <c r="G73">
         <v>759.25948800000003</v>
       </c>
@@ -4382,1019 +4396,1019 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="18"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="29">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <f>AVERAGE(exp1_details!G2,exp1_details!G11,exp1_details!G20)</f>
         <v>418.94937983333233</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <f>AVERAGE(exp1_details!H2,exp1_details!H11,exp1_details!H20)/2</f>
         <v>0.97093258333303656</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <f>AVERAGE(exp1_details!I2,exp1_details!I11,exp1_details!I20)</f>
         <v>653.85366666666675</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <f>AVERAGE(exp1_details!J2,exp1_details!J11,exp1_details!J20)</f>
         <v>7487.059895833333</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <f>AVERAGE(exp1_details!G3,exp1_details!G12,exp1_details!G21)</f>
         <v>1141.5211937333327</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <f>AVERAGE(exp1_details!H3,exp1_details!H12,exp1_details!H21)/2</f>
         <v>0.96755279999975985</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="20">
         <f>AVERAGE(exp1_details!I3,exp1_details!I12,exp1_details!I21)</f>
         <v>1.1341666666666665</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <f>AVERAGE(exp1_details!J3,exp1_details!J12,exp1_details!J21)</f>
         <v>24440.755225000001</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <f>AVERAGE(exp1_details!G4,exp1_details!G13,exp1_details!G22)</f>
         <v>688.80044856666302</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f>AVERAGE(exp1_details!H4,exp1_details!H13,exp1_details!H22)/2</f>
         <v>1.0751270499989767</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <f>AVERAGE(exp1_details!I4,exp1_details!I13,exp1_details!I22)</f>
         <v>196.91166666666666</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <f>AVERAGE(exp1_details!J4,exp1_details!J13,exp1_details!J22)</f>
         <v>13034.2265625</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <f>AVERAGE(exp1_details!G5,exp1_details!G14,exp1_details!G23)</f>
         <v>483.17347809999973</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f>AVERAGE(exp1_details!H5,exp1_details!H14,exp1_details!H23)/2</f>
         <v>1.1583437166668367</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <f>AVERAGE(exp1_details!I5,exp1_details!I14,exp1_details!I23)</f>
         <v>113246.196</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <f>AVERAGE(exp1_details!J5,exp1_details!J14,exp1_details!J23)</f>
         <v>9208.9921833333337</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <f>AVERAGE(exp1_details!G6,exp1_details!G15,exp1_details!G24)</f>
         <v>636.84633966666729</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f>AVERAGE(exp1_details!H6,exp1_details!H15,exp1_details!H24)/2</f>
         <v>1.3390959333332517</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <f>AVERAGE(exp1_details!I6,exp1_details!I15,exp1_details!I24)</f>
         <v>113652.32116666665</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <f>AVERAGE(exp1_details!J6,exp1_details!J15,exp1_details!J24)</f>
         <v>12695.557308333335</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <f>AVERAGE(exp1_details!G7,exp1_details!G16,exp1_details!G25)</f>
         <v>742.071269366666</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f>AVERAGE(exp1_details!H7,exp1_details!H16,exp1_details!H25)/2</f>
         <v>1.2433336666669048</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <f>AVERAGE(exp1_details!I7,exp1_details!I16,exp1_details!I25)</f>
         <v>51.001833333333337</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <f>AVERAGE(exp1_details!J7,exp1_details!J16,exp1_details!J25)</f>
         <v>15434.789049999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <f>AVERAGE(exp1_details!G8,exp1_details!G17,exp1_details!G26)</f>
         <v>504.959355033333</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <f>AVERAGE(exp1_details!H8,exp1_details!H17,exp1_details!H26)/2</f>
         <v>1.0651223499998967</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <f>AVERAGE(exp1_details!I8,exp1_details!I17,exp1_details!I26)</f>
         <v>113246.26466666668</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <f>AVERAGE(exp1_details!J8,exp1_details!J17,exp1_details!J26)</f>
         <v>9745.3359416666663</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <f>AVERAGE(exp1_details!G9,exp1_details!G18,exp1_details!G27)</f>
         <v>879.60102009999957</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <f>AVERAGE(exp1_details!H9,exp1_details!H18,exp1_details!H27)/2</f>
         <v>0.97303183333355836</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <f>AVERAGE(exp1_details!I9,exp1_details!I18,exp1_details!I27)</f>
         <v>18.997666666666667</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <f>AVERAGE(exp1_details!J9,exp1_details!J18,exp1_details!J27)</f>
         <v>20434.906258333333</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <f>AVERAGE(exp1_details!G10,exp1_details!G19,exp1_details!G28)</f>
         <v>373.61268089999982</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <f>AVERAGE(exp1_details!H10,exp1_details!H19,exp1_details!H28)/2</f>
         <v>1.11725314999972</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <f>AVERAGE(exp1_details!I10,exp1_details!I19,exp1_details!I28)</f>
         <v>142041.68766666666</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <f>AVERAGE(exp1_details!J10,exp1_details!J19,exp1_details!J28)</f>
         <v>8118.0234416666672</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <f>AVERAGE(exp1_details!G11,exp1_details!G20,exp1_details!G29)</f>
         <v>262.50892839999915</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <f>AVERAGE(exp1_details!H11,exp1_details!H20,exp1_details!H29)/2</f>
         <v>1.2805023666684032</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <f>AVERAGE(exp1_details!I11,exp1_details!I20,exp1_details!I29)</f>
         <v>8246.6339849091</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <f>AVERAGE(exp1_details!J11,exp1_details!J20,exp1_details!J29)</f>
         <v>4348.463541666667</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <f>AVERAGE(exp1_details!G12,exp1_details!G21,exp1_details!G30)</f>
         <v>869.74947006666537</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <f>AVERAGE(exp1_details!H12,exp1_details!H21,exp1_details!H30)/2</f>
         <v>1.3040962166660048</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <f>AVERAGE(exp1_details!I12,exp1_details!I21,exp1_details!I30)</f>
         <v>7326.2383718525671</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <f>AVERAGE(exp1_details!J12,exp1_details!J21,exp1_details!J30)</f>
         <v>18769.812516666669</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <f>AVERAGE(exp1_details!G13,exp1_details!G22,exp1_details!G31)</f>
         <v>655.04310766666458</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <f>AVERAGE(exp1_details!H13,exp1_details!H22,exp1_details!H31)/2</f>
         <v>1.318176683332285</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <f>AVERAGE(exp1_details!I13,exp1_details!I22,exp1_details!I31)</f>
         <v>6276.0911099716332</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <f>AVERAGE(exp1_details!J13,exp1_details!J22,exp1_details!J31)</f>
         <v>13297.721354166666</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <f>AVERAGE(exp1_details!G14,exp1_details!G23,exp1_details!G32)</f>
         <v>275.39256736666795</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <f>AVERAGE(exp1_details!H14,exp1_details!H23,exp1_details!H32)/2</f>
         <v>1.3178957500008033</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <f>AVERAGE(exp1_details!I14,exp1_details!I23,exp1_details!I32)</f>
         <v>120427.9247008504</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <f>AVERAGE(exp1_details!J14,exp1_details!J23,exp1_details!J32)</f>
         <v>5143.0598916666668</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <f>AVERAGE(exp1_details!G15,exp1_details!G24,exp1_details!G33)</f>
         <v>601.73626646666719</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <f>AVERAGE(exp1_details!H15,exp1_details!H24,exp1_details!H33)/2</f>
         <v>1.4539035833332783</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <f>AVERAGE(exp1_details!I15,exp1_details!I24,exp1_details!I33)</f>
         <v>6783.4287486243002</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="3">
         <f>AVERAGE(exp1_details!J15,exp1_details!J24,exp1_details!J33)</f>
         <v>12864.807308333335</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <f>AVERAGE(exp1_details!G16,exp1_details!G25,exp1_details!G34)</f>
         <v>388.58667336666423</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <f>AVERAGE(exp1_details!H16,exp1_details!H25,exp1_details!H34)/2</f>
         <v>1.6239720833318334</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <f>AVERAGE(exp1_details!I16,exp1_details!I25,exp1_details!I34)</f>
         <v>5998.7203126562999</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <f>AVERAGE(exp1_details!J16,exp1_details!J25,exp1_details!J34)</f>
         <v>8041.4166541666664</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <f>AVERAGE(exp1_details!G17,exp1_details!G26,exp1_details!G35)</f>
         <v>267.89668809999966</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <f>AVERAGE(exp1_details!H17,exp1_details!H26,exp1_details!H35)/2</f>
         <v>1.8615827333332933</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <f>AVERAGE(exp1_details!I17,exp1_details!I26,exp1_details!I35)</f>
         <v>121932.50510988827</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="3">
         <f>AVERAGE(exp1_details!J17,exp1_details!J26,exp1_details!J35)</f>
         <v>4986.9270875000002</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <f>AVERAGE(exp1_details!G18,exp1_details!G27,exp1_details!G36)</f>
         <v>558.53106803333333</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <f>AVERAGE(exp1_details!H18,exp1_details!H27,exp1_details!H36)/2</f>
         <v>1.5271796499999084</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <f>AVERAGE(exp1_details!I18,exp1_details!I27,exp1_details!I36)</f>
         <v>8434.0913062364325</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="3">
         <f>AVERAGE(exp1_details!J18,exp1_details!J27,exp1_details!J36)</f>
         <v>13843.606779166666</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <f>AVERAGE(exp1_details!G19,exp1_details!G28,exp1_details!G37)</f>
         <v>337.08818136666963</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <f>AVERAGE(exp1_details!H19,exp1_details!H28,exp1_details!H37)/2</f>
         <v>1.2803499500005784</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <f>AVERAGE(exp1_details!I19,exp1_details!I28,exp1_details!I37)</f>
         <v>35342.636502584595</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="3">
         <f>AVERAGE(exp1_details!J19,exp1_details!J28,exp1_details!J37)</f>
         <v>8366.5703166666663</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <f>AVERAGE(exp1_details!G20,exp1_details!G29,exp1_details!G38)</f>
         <v>34.860590833334498</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <f>AVERAGE(exp1_details!H20,exp1_details!H29,exp1_details!H38)/2</f>
         <v>1.6308688500017501</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <f>AVERAGE(exp1_details!I20,exp1_details!I29,exp1_details!I38)</f>
         <v>14478.052830832035</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="20">
         <f>AVERAGE(exp1_details!J20,exp1_details!J29,exp1_details!J38)</f>
         <v>220.49739583333334</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="8" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <f>AVERAGE(exp1_details!G21,exp1_details!G30,exp1_details!G39)</f>
         <v>410.23780129999636</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <f>AVERAGE(exp1_details!H21,exp1_details!H30,exp1_details!H39)/2</f>
         <v>1.653916983334325</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <f>AVERAGE(exp1_details!I21,exp1_details!I30,exp1_details!I39)</f>
         <v>13656.150695264267</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="3">
         <f>AVERAGE(exp1_details!J21,exp1_details!J30,exp1_details!J39)</f>
         <v>9318.6979333333329</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <f>AVERAGE(exp1_details!G22,exp1_details!G31,exp1_details!G40)</f>
         <v>38.131223000004745</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <f>AVERAGE(exp1_details!H22,exp1_details!H31,exp1_details!H40)/2</f>
         <v>1.6677025833333117</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <f>AVERAGE(exp1_details!I22,exp1_details!I31,exp1_details!I40)</f>
         <v>12191.839699016133</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="3">
         <f>AVERAGE(exp1_details!J22,exp1_details!J31,exp1_details!J40)</f>
         <v>602.20052083333337</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="8" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <f>AVERAGE(exp1_details!G23,exp1_details!G32,exp1_details!G41)</f>
         <v>238.95691973333399</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <f>AVERAGE(exp1_details!H23,exp1_details!H32,exp1_details!H41)/2</f>
         <v>1.6635674833346048</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <f>AVERAGE(exp1_details!I23,exp1_details!I32,exp1_details!I41)</f>
         <v>13403.647581957601</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="3">
         <f>AVERAGE(exp1_details!J23,exp1_details!J32,exp1_details!J41)</f>
         <v>5229.9140583333328</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="8" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <f>AVERAGE(exp1_details!G24,exp1_details!G33,exp1_details!G42)</f>
         <v>290.64301383333526</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <f>AVERAGE(exp1_details!H24,exp1_details!H33,exp1_details!H42)/2</f>
         <v>1.6574285833346936</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="3">
         <f>AVERAGE(exp1_details!I24,exp1_details!I33,exp1_details!I42)</f>
         <v>12567.932779389666</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="3">
         <f>AVERAGE(exp1_details!J24,exp1_details!J33,exp1_details!J42)</f>
         <v>6588.5833499999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="8" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <f>AVERAGE(exp1_details!G25,exp1_details!G34,exp1_details!G43)</f>
         <v>352.68494120000059</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <f>AVERAGE(exp1_details!H25,exp1_details!H34,exp1_details!H43)/2</f>
         <v>1.9093108333329833</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="3">
         <f>AVERAGE(exp1_details!I25,exp1_details!I34,exp1_details!I43)</f>
         <v>11572.935546189734</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="3">
         <f>AVERAGE(exp1_details!J25,exp1_details!J34,exp1_details!J43)</f>
         <v>8292.0598833333333</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="20"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="17"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="20"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="17"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="20"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="17"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="20"/>
-      <c r="G29" s="12"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="17"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="20"/>
-      <c r="G30" s="12"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="17"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="20"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="17"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="20"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="17"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="20"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="17"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="20"/>
-      <c r="G34" s="16"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="17"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="20"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="17"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="20"/>
-      <c r="G36" s="12"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="17"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="20"/>
-      <c r="G37" s="12"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="17"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="20"/>
-      <c r="K41" s="12"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="17"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="20"/>
-      <c r="K42" s="12"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="17"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="20"/>
-      <c r="K43" s="12"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="17"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="17"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="17"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="17"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="17"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="17"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="20"/>
-      <c r="K57" s="11"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="17"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="17"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="17"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="17"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="17"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="17"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="17"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="17"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="17"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="17"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="17"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="17"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="17"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="17"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5407,1614 +5421,3181 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
     <col min="5" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
     <col min="9" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.6664529994595699E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5.07293020491488E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>446.234375</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="3">
+        <v>14.1605200589983</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.142925555992405</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="3">
+        <v>151.392366009997</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.32582552102394402</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4551.3125</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="30">
+        <v>2</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.7811673013493398E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.2205816018395098E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>446.234375</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="3">
+        <v>14.3543406649841</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.12969067395897499</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="3">
+        <v>167.87105353298799</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.27540290902834302</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5256.3828125</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="29">
+        <v>3</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.3107617986388498E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.39272530493326E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>446.234375</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="3">
+        <v>13.743750928028</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.130507279012817</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.255</v>
+      </c>
+      <c r="J9" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="3">
+        <v>147.182807467994</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.26592951599741299</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4607.7109375</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>69638089</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.61903230077587E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5.0175241951365003E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>441.21875</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="3">
+        <v>13.944736253994</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.15184477303409899</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J12" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="3">
+        <v>144.12987161404399</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.28443194698775098</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4439.8125</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="30">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3.85198569856584E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4.15082810213789E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>439.015625</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="3">
+        <v>15.8145861490047</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.13239642197731799</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="3">
+        <v>154.290160763019</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.27009918796829802</v>
+      </c>
+      <c r="I16" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4227.453125</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="29">
+        <v>3</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.5158149999999999E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4.1948569999999998E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>439.75</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="3">
+        <v>14.7014332</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.12815401000000001</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="J18" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="3">
+        <v>8.9724279300000003</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.25948302000000001</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>61.9921875</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="29">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3.3461970000000001E-2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.2388559999999999E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J20" s="3">
+        <v>436.203125</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3">
+        <v>14.3081747</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.13231572999999999</v>
+      </c>
+      <c r="I21" s="3">
+        <v>350.37</v>
+      </c>
+      <c r="J21" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3">
+        <v>82.672329000000005</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.27267384</v>
+      </c>
+      <c r="I22" s="3">
+        <v>16.675000000000001</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2414.59375</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="30">
+        <v>2</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.10071412</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4.24123E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>439.382813</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="3">
+        <v>13.935029699999999</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.13371379999999999</v>
+      </c>
+      <c r="I24" s="3">
+        <v>152.755</v>
+      </c>
+      <c r="J24" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="3">
+        <v>53.1739733</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.26063646000000001</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1319.2449999999999</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1488.2968800000001</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="29">
+        <v>3</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3.6719120000000001E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4.502656E-2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>438.28125</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="3">
+        <v>14.2755268</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.14732242000000001</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2984.22</v>
+      </c>
+      <c r="J27" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="3">
+        <v>58.006263699999998</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.33510788000000002</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1604.59375</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="17"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.47446752199903097</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.47799780097557198</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4438.6640625</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="3">
+        <v>135.585526263981</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.2109863620135</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="J30" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="17"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E31" s="29"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="3">
+        <v>994.52015342202503</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2.7435304590035199</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.109</v>
+      </c>
+      <c r="J31" s="3">
+        <v>29784.9921875</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="30">
+        <v>2</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.52650370297487803</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.45859224803280002</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4438.6640625</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="3">
+        <v>143.45529908</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.1781733959796801</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1.347</v>
+      </c>
+      <c r="J33" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="25"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="3">
+        <v>1054.15672565298</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2.70139687700429</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.1045</v>
+      </c>
+      <c r="J34" s="3">
+        <v>29768.671875</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="29">
+        <v>3</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.50568526000000003</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.51059399999999999</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4438.6640600000001</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="17"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="3">
+        <v>136.06553299999999</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1.2350154099999999</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.1875</v>
+      </c>
+      <c r="J36" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="17"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="3">
+        <v>1030.57969</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2.94550014</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="J37" s="3">
+        <v>29654.031299999999</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="17"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="29">
         <v>1</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F38" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.47348717501154097</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.456057914998382</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J38" s="3">
+        <v>4378.7109375</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="3">
+        <v>139.803682780999</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1.20251489803195</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1.0615000000000001</v>
+      </c>
+      <c r="J39" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="3">
+        <v>937.76541735901196</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2.71045410103397</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="J40" s="3">
+        <v>27814.90625</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="17"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="30">
+        <v>2</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.49881095398450198</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.47074879001593201</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4381.890625</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="3">
+        <v>138.93720416200799</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1.2042828359990301</v>
+      </c>
+      <c r="I42" s="3">
+        <v>9.3339999999999996</v>
+      </c>
+      <c r="J42" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="3">
+        <v>557.50881961203402</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2.73099467903375</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3.1589999999999998</v>
+      </c>
+      <c r="J43" s="3">
+        <v>16049.09375</v>
+      </c>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="25"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="29">
+        <v>3</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.45892055600415899</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.48975006997352399</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4373.5703125</v>
+      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="17"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="3">
+        <v>136.94363628997201</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1.2264652249868899</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2.8025000000000002</v>
+      </c>
+      <c r="J45" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="17"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="3">
+        <v>569.53035333298601</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2.7092108029755702</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1.865</v>
+      </c>
+      <c r="J46" s="3">
+        <v>16816.8359375</v>
+      </c>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="17"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="29">
+        <v>1</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.43597013998078099</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.44482389796757998</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3809.265625</v>
+      </c>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="17"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="3">
+        <v>136.71543104702101</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1.15055383299477</v>
+      </c>
+      <c r="I48" s="3">
+        <v>82639.803499999995</v>
+      </c>
+      <c r="J48" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="17"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="3">
+        <v>771.56486897799095</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2.6365638000424898</v>
+      </c>
+      <c r="I49" s="3">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="J49" s="3">
+        <v>22807.4453125</v>
+      </c>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="17"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="30">
+        <v>2</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.43502644594991502</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.45709920796798498</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3824.8046875</v>
+      </c>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="25"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="3">
+        <v>133.76215766899901</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1.1751656439737399</v>
+      </c>
+      <c r="I51" s="3">
+        <v>88057.736499999999</v>
+      </c>
+      <c r="J51" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="25"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="3">
+        <v>460.02056048699802</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2.6419338760315401</v>
+      </c>
+      <c r="I52" s="3">
+        <v>90243.41</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12553.390625</v>
+      </c>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="25"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="29">
+        <v>3</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.47211205000000001</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.45259934000000002</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J53" s="3">
+        <v>3813.1796899999999</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="17"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="3">
+        <v>142.19209599999999</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1.1923473499999999</v>
+      </c>
+      <c r="I54" s="3">
+        <v>80618.093500000003</v>
+      </c>
+      <c r="J54" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="17"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="3">
+        <v>451.57930900000002</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2.66201336</v>
+      </c>
+      <c r="I55" s="3">
+        <v>5.1234999999999999</v>
+      </c>
+      <c r="J55" s="3">
+        <v>12154.9766</v>
+      </c>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="17"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="29">
+        <v>1</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="29">
+        <v>1</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="3">
+        <v>6.55782679</v>
+      </c>
+      <c r="H56" s="3">
+        <v>4.7093091899999999</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>44346.898399999998</v>
+      </c>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="17"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="3">
+        <v>1324.14579</v>
+      </c>
+      <c r="H57" s="3">
+        <v>11.300632</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7.20505</v>
+      </c>
+      <c r="J57" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="17"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="3">
+        <v>1263.6989799999999</v>
+      </c>
+      <c r="H58" s="3">
+        <v>26.164000699999999</v>
+      </c>
+      <c r="I58" s="3">
+        <v>196.0685</v>
+      </c>
+      <c r="J58" s="3">
+        <v>18802.398399999998</v>
+      </c>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="17"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="30">
+        <v>2</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="3">
+        <v>6.5337150900000003</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4.4214962900000003</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>44346.898399999998</v>
+      </c>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="25"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="30"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="3">
+        <v>1337.1462100000001</v>
+      </c>
+      <c r="H60" s="3">
+        <v>10.794181500000001</v>
+      </c>
+      <c r="I60" s="3">
+        <v>19.43045</v>
+      </c>
+      <c r="J60" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="25"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="30"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="3">
+        <v>1239.37895</v>
+      </c>
+      <c r="H61" s="3">
+        <v>26.175075400000001</v>
+      </c>
+      <c r="I61" s="3">
+        <v>207.4503</v>
+      </c>
+      <c r="J61" s="3">
+        <v>17687.296900000001</v>
+      </c>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="25"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="29">
+        <v>3</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6.0623761500000004</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4.6347673800000004</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>44346.898399999998</v>
+      </c>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="17"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="3">
+        <v>1325.36374</v>
+      </c>
+      <c r="H63" s="3">
+        <v>11.222800700000001</v>
+      </c>
+      <c r="I63" s="3">
+        <v>10.171749999999999</v>
+      </c>
+      <c r="J63" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="17"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="29"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="3">
+        <v>1316.13453</v>
+      </c>
+      <c r="H64" s="3">
+        <v>25.786826900000001</v>
+      </c>
+      <c r="I64" s="3">
+        <v>238.73994999999999</v>
+      </c>
+      <c r="J64" s="3">
+        <v>17447.593799999999</v>
+      </c>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="17"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="29"/>
+      <c r="B65" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="29">
+        <v>1</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="3">
+        <v>6.8091585600000002</v>
+      </c>
+      <c r="H65" s="3">
+        <v>4.4945391099999998</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1.25E-3</v>
+      </c>
+      <c r="J65" s="3">
+        <v>43762.281300000002</v>
+      </c>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="17"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="3">
+        <v>1360.3326500000001</v>
+      </c>
+      <c r="H66" s="3">
+        <v>9.9085972499999997</v>
+      </c>
+      <c r="I66" s="3">
+        <v>32.612900000000003</v>
+      </c>
+      <c r="J66" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="17"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="3">
+        <v>1617.94694</v>
+      </c>
+      <c r="H67" s="3">
+        <v>22.171301499999998</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1733.50495</v>
+      </c>
+      <c r="J67" s="3">
+        <v>31509.242200000001</v>
+      </c>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="17"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="30">
+        <v>2</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="3">
+        <v>6.7160559700000002</v>
+      </c>
+      <c r="H68" s="3">
+        <v>4.54798072</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J68" s="3">
+        <v>43757.265599999999</v>
+      </c>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="25"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="30"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="3">
+        <v>1375.1419900000001</v>
+      </c>
+      <c r="H69" s="3">
+        <v>11.1852237</v>
+      </c>
+      <c r="I69" s="3">
+        <v>38.751049999999999</v>
+      </c>
+      <c r="J69" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="25"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="30"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="3">
+        <v>1604.15642</v>
+      </c>
+      <c r="H70" s="3">
+        <v>25.3796204</v>
+      </c>
+      <c r="I70" s="3">
+        <v>170.33189999999999</v>
+      </c>
+      <c r="J70" s="3">
+        <v>30627.031299999999</v>
+      </c>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="25"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="29">
+        <v>3</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" s="3">
+        <v>6.60853497</v>
+      </c>
+      <c r="H71" s="3">
+        <v>4.8444073200000002</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1.25E-3</v>
+      </c>
+      <c r="J71" s="3">
+        <v>43795.5625</v>
+      </c>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="17"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="29"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="3">
+        <v>1443.8668500000001</v>
+      </c>
+      <c r="H72" s="3">
+        <v>11.362181100000001</v>
+      </c>
+      <c r="I72" s="3">
+        <v>45.301049999999996</v>
+      </c>
+      <c r="J72" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="17"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="29"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="3">
+        <v>1223.54069</v>
+      </c>
+      <c r="H73" s="3">
+        <v>26.0741102</v>
+      </c>
+      <c r="I73" s="3">
+        <v>31693.927199999998</v>
+      </c>
+      <c r="J73" s="3">
+        <v>14179.984399999999</v>
+      </c>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="17"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="29">
+        <v>1</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="3">
+        <v>5.5797752699999998</v>
+      </c>
+      <c r="H74" s="3">
+        <v>4.6709717700000004</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J74" s="3">
+        <v>22907.656299999999</v>
+      </c>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="17"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="3">
+        <v>1535.6609000000001</v>
+      </c>
+      <c r="H75" s="3">
+        <v>11.597531699999999</v>
+      </c>
+      <c r="I75" s="3">
+        <v>8365269.6900000004</v>
+      </c>
+      <c r="J75" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="17"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="3">
+        <v>869.39322400000003</v>
+      </c>
+      <c r="H76" s="3">
+        <v>25.964785599999999</v>
+      </c>
+      <c r="I76" s="3">
+        <v>629577.93799999997</v>
+      </c>
+      <c r="J76" s="3">
+        <v>206.132813</v>
+      </c>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="17"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="30">
+        <v>2</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G77" s="3">
+        <v>5.0908943100000004</v>
+      </c>
+      <c r="H77" s="3">
+        <v>4.9456964799999996</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0.20294999999999999</v>
+      </c>
+      <c r="J77" s="3">
+        <v>22830.695299999999</v>
+      </c>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="25"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="30"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="3">
+        <v>1353.8020100000001</v>
+      </c>
+      <c r="H78" s="3">
+        <v>11.7045581</v>
+      </c>
+      <c r="I78" s="3">
+        <v>33443361.399999999</v>
+      </c>
+      <c r="J78" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="25"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="30"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="3">
+        <v>934.655933</v>
+      </c>
+      <c r="H79" s="3">
+        <v>26.542077299999999</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1858162.77</v>
+      </c>
+      <c r="J79" s="3">
+        <v>4419.1640600000001</v>
+      </c>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="25"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="29">
+        <v>3</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="3">
+        <v>5.1747251199999997</v>
+      </c>
+      <c r="H80" s="3">
+        <v>4.4218372600000002</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0.20954999999999999</v>
+      </c>
+      <c r="J80" s="3">
+        <v>22879.390599999999</v>
+      </c>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="17"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="3">
+        <v>1678.7888600000001</v>
+      </c>
+      <c r="H81" s="3">
+        <v>11.3099966</v>
+      </c>
+      <c r="I81" s="3">
+        <v>8447911.9100000001</v>
+      </c>
+      <c r="J81" s="3">
+        <v>28.515625</v>
+      </c>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="17"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="3">
+        <v>969.77034500000002</v>
+      </c>
+      <c r="H82" s="3">
+        <v>25.640923600000001</v>
+      </c>
+      <c r="I82" s="3">
+        <v>5938.3471</v>
+      </c>
+      <c r="J82" s="3">
+        <v>3914.8125</v>
+      </c>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="17"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="29">
+        <v>1</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="5">
-        <v>1040.10256310002</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1.81980629998724</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.10150000000000001</v>
-      </c>
-      <c r="J2" s="5">
-        <v>28536.296875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="6" t="s">
+      <c r="D83" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="5">
-        <v>0.49957189999986401</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.36012150000897197</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>4109.703125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="6" t="s">
+      <c r="E83" s="29">
+        <v>1</v>
+      </c>
+      <c r="F83" s="33"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="5">
-        <v>141.67985129999499</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.76228489997447402</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1.3405</v>
-      </c>
-      <c r="J4" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="6" t="s">
+      <c r="E84" s="29"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E85" s="29"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="30">
         <v>2</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="5">
-        <v>85.476905299990904</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1.92464010001276</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2.9965000000000002</v>
-      </c>
-      <c r="J5" s="5">
-        <v>61.015625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="6" t="s">
+      <c r="F86" s="29"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="30"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="30"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="5">
-        <v>0.49817430000985002</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.38666519999969701</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>4109.703125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="6" t="s">
+      <c r="E89" s="29">
+        <v>3</v>
+      </c>
+      <c r="F89" s="30"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="5">
-        <v>141.06960970000301</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.814381000003777</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2.141</v>
-      </c>
-      <c r="J7" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="6" t="s">
+      <c r="E90" s="29"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E91" s="29"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="29"/>
+      <c r="B92" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="29">
+        <v>1</v>
+      </c>
+      <c r="F92" s="29"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="30">
+        <v>2</v>
+      </c>
+      <c r="F95" s="29"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="30"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="30"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="29">
         <v>3</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="5">
-        <v>719.90828370000202</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2.2657305000175199</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2.5185</v>
-      </c>
-      <c r="J8" s="5">
-        <v>13671.203125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
+      <c r="F98" s="30"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="29"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="29"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="29"/>
+      <c r="B101" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="5">
-        <v>0.57675449998350803</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.62466519998269998</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>4109.703125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="6" t="s">
+      <c r="E101" s="29">
+        <v>1</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G101" s="3">
+        <v>54.736408099999998</v>
+      </c>
+      <c r="H101" s="3">
+        <v>46.492092599999999</v>
+      </c>
+      <c r="I101" s="3">
+        <v>11.24277</v>
+      </c>
+      <c r="J101" s="3">
+        <v>105755.633</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="5">
-        <v>207.647863799997</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1.5623883999942301</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="J10" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="3">
+        <v>19113.426299999999</v>
+      </c>
+      <c r="H102" s="3">
+        <v>111.443029</v>
+      </c>
+      <c r="I102" s="3">
+        <v>854713535</v>
+      </c>
+      <c r="J102" s="3">
+        <v>28.515625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="28">
-        <v>1</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="5">
-        <v>610.42659339998499</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1.78199079999467</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2.702</v>
-      </c>
-      <c r="J11" s="5">
-        <v>16751.671875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="6" t="s">
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="3">
+        <v>8769.1954499999993</v>
+      </c>
+      <c r="H103" s="3">
+        <v>255.111108</v>
+      </c>
+      <c r="I103" s="3">
+        <v>327801.30200000003</v>
+      </c>
+      <c r="J103" s="3">
+        <v>14604.179700000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="5">
-        <v>0.45743660000152803</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.35999640001682498</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>4060.0859375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="6" t="s">
+      <c r="E104" s="30">
+        <v>2</v>
+      </c>
+      <c r="F104" s="29"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="5">
-        <v>138.893234699993</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.74178750001010396</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2.3220000000000001</v>
-      </c>
-      <c r="J13" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="6" t="s">
+      <c r="E105" s="30"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="29">
-        <v>2</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="5">
-        <v>528.61402629999702</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1.9123736000037701</v>
-      </c>
-      <c r="I14" s="5">
-        <v>95.231499999999997</v>
-      </c>
-      <c r="J14" s="5">
-        <v>13840.40625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="6" t="s">
+      <c r="E106" s="30"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="5">
-        <v>0.47956230002455402</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.38526010001078198</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J15" s="5">
-        <v>4060.0859375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="6" t="s">
+      <c r="E107" s="29">
+        <v>3</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G107" s="3">
+        <v>49.953103800000001</v>
+      </c>
+      <c r="H107" s="3">
+        <v>50.516494000000002</v>
+      </c>
+      <c r="I107" s="3">
+        <v>11.384460000000001</v>
+      </c>
+      <c r="J107" s="3">
+        <v>105727.367</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="5">
-        <v>141.888041800004</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.80791319999843803</v>
-      </c>
-      <c r="I16" s="5">
-        <v>4.3114999999999997</v>
-      </c>
-      <c r="J16" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="6" t="s">
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="3">
+        <v>13209.852500000001</v>
+      </c>
+      <c r="H108" s="3">
+        <v>120.064336</v>
+      </c>
+      <c r="I108" s="3">
+        <v>3339319425</v>
+      </c>
+      <c r="J108" s="3">
+        <v>28.515625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="28">
-        <v>3</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1026.97486</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1.9131391</v>
-      </c>
-      <c r="I17" s="5">
-        <v>159.334</v>
-      </c>
-      <c r="J17" s="5">
-        <v>27202.843799999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="5">
-        <v>0.51101680000000005</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0.38312459999999998</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J18" s="5">
-        <v>4057.7343799999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="5">
-        <v>146.52949899999999</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.80988879999999996</v>
-      </c>
-      <c r="I19" s="5">
-        <v>3.7930000000000001</v>
-      </c>
-      <c r="J19" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="28">
-        <v>1</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="5">
-        <v>537.506524299999</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1.96669359999941</v>
-      </c>
-      <c r="I20" s="5">
-        <v>345.02949999999998</v>
-      </c>
-      <c r="J20" s="5">
-        <v>9733.265625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="5">
-        <v>0.94995519999065403</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.39037909999024101</v>
-      </c>
-      <c r="I21" s="5">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="J21" s="5">
-        <v>3522.109375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="5">
-        <v>176.36337340000301</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.851346600014949</v>
-      </c>
-      <c r="I22" s="5">
-        <v>28421.393499999998</v>
-      </c>
-      <c r="J22" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="29">
-        <v>2</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="5">
-        <v>321.21071759998398</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1.9084328000026201</v>
-      </c>
-      <c r="I23" s="5">
-        <v>501.00799999999998</v>
-      </c>
-      <c r="J23" s="5">
-        <v>7313.671875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="5">
-        <v>0.43266010002116601</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0.375320899998769</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1.95E-2</v>
-      </c>
-      <c r="J24" s="5">
-        <v>3522.109375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5">
-        <v>138.629843799979</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.82011130001046695</v>
-      </c>
-      <c r="I25" s="5">
-        <v>80981.236499999999</v>
-      </c>
-      <c r="J25" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="28">
-        <v>3</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1346.2070278999699</v>
-      </c>
-      <c r="H26" s="5">
-        <v>2.2984010000072801</v>
-      </c>
-      <c r="I26" s="5">
-        <v>92.371499999999997</v>
-      </c>
-      <c r="J26" s="5">
-        <v>24307.34375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="5">
-        <v>0.57148889999371</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0.45574819998000698</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="J27" s="5">
-        <v>3522.109375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="5">
-        <v>210.881189699983</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.95617140000103895</v>
-      </c>
-      <c r="I28" s="5">
-        <v>87721.729000000007</v>
-      </c>
-      <c r="J28" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
-        <v>1</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="28">
-        <v>1</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="5">
-        <v>2158.4395334000001</v>
-      </c>
-      <c r="H29" s="5">
-        <v>19.5035086999996</v>
-      </c>
-      <c r="I29" s="5">
-        <v>285.74746262686801</v>
-      </c>
-      <c r="J29" s="5">
-        <v>30796.484375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="5">
-        <v>6.7587094999908004</v>
-      </c>
-      <c r="H30" s="5">
-        <v>5.0350769000069704</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0.106744662766861</v>
-      </c>
-      <c r="J30" s="5">
-        <v>40273.3359375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="5">
-        <v>1807.4230467999801</v>
-      </c>
-      <c r="H31" s="5">
-        <v>10.600623000005699</v>
-      </c>
-      <c r="I31" s="5">
-        <v>129.68006599669999</v>
-      </c>
-      <c r="J31" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="29">
-        <v>2</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1304.6810293999999</v>
-      </c>
-      <c r="H32" s="5">
-        <v>18.2471644000033</v>
-      </c>
-      <c r="I32" s="5">
-        <v>211.48845</v>
-      </c>
-      <c r="J32" s="5">
-        <v>17332.53125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5">
-        <v>6.3603403000160998</v>
-      </c>
-      <c r="H33" s="5">
-        <v>4.00572069999179</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <v>41057.40625</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="5">
-        <v>1399.8316926999801</v>
-      </c>
-      <c r="H34" s="5">
-        <v>7.9666547999950099</v>
-      </c>
-      <c r="I34" s="5">
-        <v>11.431649999999999</v>
-      </c>
-      <c r="J34" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="28">
-        <v>3</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1815.3437355999999</v>
-      </c>
-      <c r="H35" s="5">
-        <v>18.893518400000101</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1.1993499999999999</v>
-      </c>
-      <c r="J35" s="5">
-        <v>30783.4375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="5">
-        <v>6.9168160999834001</v>
-      </c>
-      <c r="H36" s="5">
-        <v>4.1386738999863102</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5">
-        <v>41057.40625</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="5">
-        <v>1482.4935869999999</v>
-      </c>
-      <c r="H37" s="5">
-        <v>8.2121730999788198</v>
-      </c>
-      <c r="I37" s="5">
-        <v>10.8222</v>
-      </c>
-      <c r="J37" s="5">
-        <v>28.2109375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="28">
-        <v>1</v>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="29">
-        <v>2</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="28">
-        <v>3</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="28">
-        <v>1</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="29">
-        <v>2</v>
-      </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="28">
-        <v>3</v>
-      </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
-        <v>1</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="28">
-        <v>1</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="28"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="29">
-        <v>2</v>
-      </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="28">
-        <v>3</v>
-      </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="28">
-        <v>1</v>
-      </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="29">
-        <v>2</v>
-      </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="28">
-        <v>3</v>
-      </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="28">
-        <v>1</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="29">
-        <v>2</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="28">
-        <v>3</v>
-      </c>
-      <c r="F80" s="32"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="28"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="28"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="3">
+        <v>9106.2262599999995</v>
+      </c>
+      <c r="H109" s="3">
+        <v>266.95394099999999</v>
+      </c>
+      <c r="I109" s="3">
+        <v>488679.17800000001</v>
+      </c>
+      <c r="J109" s="3">
+        <v>23297.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="35"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="35"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="35"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="28"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="28"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="28"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="28"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="28"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="36"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="36"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="36"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="28"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="28"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="28"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="28"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="36"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="36"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="36"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="37"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="28"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="28"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="28"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="35"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="28"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="35"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="28"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F56:F58"/>
+  <mergeCells count="125">
+    <mergeCell ref="F128:F130"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="A110:A136"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="C110:C118"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="B119:B127"/>
+    <mergeCell ref="C119:C127"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="C128:C136"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A83:A109"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="C92:C100"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="B101:B109"/>
+    <mergeCell ref="C101:C109"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="F59:F61"/>
     <mergeCell ref="F62:F64"/>
+    <mergeCell ref="A29:A55"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="E50:E52"/>
     <mergeCell ref="F65:F67"/>
     <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F53:F55"/>
     <mergeCell ref="A56:A82"/>
     <mergeCell ref="B56:B64"/>
     <mergeCell ref="C56:C64"/>
@@ -7031,68 +8612,26 @@
     <mergeCell ref="E74:E76"/>
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="A29:A55"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F56:F58"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="F29" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7134,220 +8673,625 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <f>AVERAGE(exp2_details!G2,exp2_details!G5,exp2_details!G8)</f>
+        <v>3.5861273664825867E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <f>AVERAGE(exp2_details!H2,exp2_details!H5,exp2_details!H8)</f>
+        <v>4.5620790372292164E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <f>AVERAGE(exp2_details!I2,exp2_details!I5,exp2_details!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <f>AVERAGE(exp2_details!J2,exp2_details!J5,exp2_details!J8)</f>
+        <v>446.234375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <f>AVERAGE(exp2_details!G3,exp2_details!G6,exp2_details!G9)</f>
+        <v>14.086203884003467</v>
+      </c>
+      <c r="F3" s="2">
+        <f>AVERAGE(exp2_details!H3,exp2_details!H6,exp2_details!H9)</f>
+        <v>0.13437450298806566</v>
+      </c>
+      <c r="G3" s="2">
+        <f>AVERAGE(exp2_details!I3,exp2_details!I6,exp2_details!I9)</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H3" s="2">
+        <f>AVERAGE(exp2_details!J3,exp2_details!J6,exp2_details!J9)</f>
+        <v>28.515625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <f>AVERAGE(exp2_details!G4,exp2_details!G7,exp2_details!G10)</f>
+        <v>155.48207567032634</v>
+      </c>
+      <c r="F4" s="2">
+        <f>AVERAGE(exp2_details!H4,exp2_details!H7,exp2_details!H10)</f>
+        <v>0.28905264868323333</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(exp2_details!I4,exp2_details!I7,exp2_details!I10)</f>
+        <v>0.11333333333333334</v>
+      </c>
+      <c r="H4" s="2">
+        <f>AVERAGE(exp2_details!J4,exp2_details!J7,exp2_details!J10)</f>
+        <v>4805.135416666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <f>AVERAGE(exp2_details!G5,exp2_details!G8,exp2_details!G11)</f>
+        <v>3.5703204669213534E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <f>AVERAGE(exp2_details!H5,exp2_details!H8,exp2_details!H11)</f>
+        <v>4.5436103673030893E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <f>AVERAGE(exp2_details!I5,exp2_details!I8,exp2_details!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>AVERAGE(exp2_details!J5,exp2_details!J8,exp2_details!J11)</f>
+        <v>444.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <f>AVERAGE(exp2_details!G6,exp2_details!G9,exp2_details!G12)</f>
+        <v>14.014275949002034</v>
+      </c>
+      <c r="F6" s="2">
+        <f>AVERAGE(exp2_details!H6,exp2_details!H9,exp2_details!H12)</f>
+        <v>0.13734757533529698</v>
+      </c>
+      <c r="G6" s="2">
+        <f>AVERAGE(exp2_details!I6,exp2_details!I9,exp2_details!I12)</f>
+        <v>0.315</v>
+      </c>
+      <c r="H6" s="2">
+        <f>AVERAGE(exp2_details!J6,exp2_details!J9,exp2_details!J12)</f>
+        <v>28.515625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <f>AVERAGE(exp2_details!G7,exp2_details!G10,exp2_details!G13)</f>
+        <v>153.06124420500865</v>
+      </c>
+      <c r="F7" s="2">
+        <f>AVERAGE(exp2_details!H7,exp2_details!H10,exp2_details!H13)</f>
+        <v>0.27525479067116904</v>
+      </c>
+      <c r="G7" s="2">
+        <f>AVERAGE(exp2_details!I7,exp2_details!I10,exp2_details!I13)</f>
+        <v>0.10666666666666669</v>
+      </c>
+      <c r="H7" s="2">
+        <f>AVERAGE(exp2_details!J7,exp2_details!J10,exp2_details!J13)</f>
+        <v>4767.96875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <f>AVERAGE(exp2_details!G8,exp2_details!G11,exp2_details!G14)</f>
+        <v>3.5939265993268528E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f>AVERAGE(exp2_details!H8,exp2_details!H11,exp2_details!H14)</f>
+        <v>4.520359200735883E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f>AVERAGE(exp2_details!I8,exp2_details!I11,exp2_details!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <f>AVERAGE(exp2_details!J8,exp2_details!J11,exp2_details!J14)</f>
+        <v>442.15625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <f>AVERAGE(exp2_details!G9,exp2_details!G12,exp2_details!G15)</f>
+        <v>14.501024443675567</v>
+      </c>
+      <c r="F9" s="2">
+        <f>AVERAGE(exp2_details!H9,exp2_details!H12,exp2_details!H15)</f>
+        <v>0.13824949134141132</v>
+      </c>
+      <c r="G9" s="2">
+        <f>AVERAGE(exp2_details!I9,exp2_details!I12,exp2_details!I15)</f>
+        <v>0.42666666666666658</v>
+      </c>
+      <c r="H9" s="2">
+        <f>AVERAGE(exp2_details!J9,exp2_details!J12,exp2_details!J15)</f>
+        <v>28.515625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <f>AVERAGE(exp2_details!G10,exp2_details!G13,exp2_details!G16)</f>
+        <v>148.53427994835235</v>
+      </c>
+      <c r="F10" s="2">
+        <f>AVERAGE(exp2_details!H10,exp2_details!H13,exp2_details!H16)</f>
+        <v>0.27348688365115398</v>
+      </c>
+      <c r="G10" s="2">
+        <f>AVERAGE(exp2_details!I10,exp2_details!I13,exp2_details!I16)</f>
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="H10" s="2">
+        <f>AVERAGE(exp2_details!J10,exp2_details!J13,exp2_details!J16)</f>
+        <v>4424.9921875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <f>AVERAGE(exp2_details!G29,exp2_details!G32,exp2_details!G35)</f>
+        <v>0.50221882832463638</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="4" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="1" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="1" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F3" s="4" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G3" s="1" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H3" s="1" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" s="4" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G4" s="1" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H4" s="1" t="e">
-        <f>AVERAGE(exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!,exp2_details!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C23" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C35" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A23"/>
+  <mergeCells count="25">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/experiments/1d.xlsx
+++ b/report/experiments/1d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/QVO/code/xzyao/projects/index/msc-project/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4F69CFA7-F007-9048-A59B-CEF3B439F08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8CEE0DB8-6B5A-0543-A88A-2D336F5D5F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5423,8 +5423,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77:E79"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G82" sqref="G2:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5754,16 +5754,16 @@
         <v>69638089</v>
       </c>
       <c r="G11" s="3">
-        <v>3.61903230077587E-2</v>
+        <v>5.4501099999999997E-2</v>
       </c>
       <c r="H11" s="3">
-        <v>5.0175241951365003E-2</v>
+        <v>5.1911499999999999E-2</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J11" s="3">
-        <v>441.21875</v>
+        <v>439.75</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -5839,16 +5839,16 @@
         <v>49</v>
       </c>
       <c r="G14" s="3">
-        <v>3.85198569856584E-2</v>
+        <v>5.99014E-2</v>
       </c>
       <c r="H14" s="3">
-        <v>4.15082810213789E-2</v>
+        <v>7.3695999999999998E-2</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J14" s="3">
-        <v>439.015625</v>
+        <v>439.75</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -5924,10 +5924,10 @@
         <v>50</v>
       </c>
       <c r="G17" s="3">
-        <v>3.5158149999999999E-2</v>
+        <v>5.4307800000000003E-2</v>
       </c>
       <c r="H17" s="3">
-        <v>4.1948569999999998E-2</v>
+        <v>3.7657200000000002E-2</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -6013,16 +6013,16 @@
         <v>51</v>
       </c>
       <c r="G20" s="3">
-        <v>3.3461970000000001E-2</v>
+        <v>5.42008E-2</v>
       </c>
       <c r="H20" s="3">
-        <v>4.2388559999999999E-2</v>
+        <v>5.2620899999999998E-2</v>
       </c>
       <c r="I20" s="3">
-        <v>0.01</v>
+        <v>9.5477400000000004E-2</v>
       </c>
       <c r="J20" s="3">
-        <v>436.203125</v>
+        <v>444.86700000000002</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
@@ -6098,16 +6098,16 @@
         <v>52</v>
       </c>
       <c r="G23" s="3">
-        <v>0.10071412</v>
+        <v>5.6907300000000001E-2</v>
       </c>
       <c r="H23" s="3">
-        <v>4.24123E-2</v>
+        <v>5.33053E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>9.0452299999999999E-2</v>
       </c>
       <c r="J23" s="3">
-        <v>439.382813</v>
+        <v>444.86700000000002</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -6183,16 +6183,16 @@
         <v>53</v>
       </c>
       <c r="G26" s="3">
-        <v>3.6719120000000001E-2</v>
+        <v>7.9617099999999996E-2</v>
       </c>
       <c r="H26" s="3">
-        <v>4.502656E-2</v>
+        <v>6.8686300000000006E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>0.120603</v>
       </c>
       <c r="J26" s="3">
-        <v>438.28125</v>
+        <v>444.86700000000002</v>
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -6274,16 +6274,16 @@
         <v>60</v>
       </c>
       <c r="G29" s="3">
-        <v>0.47446752199903097</v>
+        <v>0.69680299999999995</v>
       </c>
       <c r="H29" s="3">
-        <v>0.47799780097557198</v>
+        <v>0.57410399999999995</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>4438.6640625</v>
+        <v>4438.66</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
@@ -6359,16 +6359,16 @@
         <v>54</v>
       </c>
       <c r="G32" s="3">
-        <v>0.52650370297487803</v>
+        <v>0.96174300000000001</v>
       </c>
       <c r="H32" s="3">
-        <v>0.45859224803280002</v>
+        <v>0.58534200000000003</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>4438.6640625</v>
+        <v>4438.66</v>
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
@@ -6444,16 +6444,16 @@
         <v>55</v>
       </c>
       <c r="G35" s="3">
-        <v>0.50568526000000003</v>
+        <v>0.60395399999999999</v>
       </c>
       <c r="H35" s="3">
-        <v>0.51059399999999999</v>
+        <v>0.56403599999999998</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>4438.6640600000001</v>
+        <v>4438.66</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
@@ -6533,16 +6533,16 @@
         <v>56</v>
       </c>
       <c r="G38" s="3">
-        <v>0.47348717501154097</v>
+        <v>0.75375499999999995</v>
       </c>
       <c r="H38" s="3">
-        <v>0.456057914998382</v>
+        <v>0.55578799999999995</v>
       </c>
       <c r="I38" s="3">
-        <v>1.5E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J38" s="3">
-        <v>4378.7109375</v>
+        <v>4377.24</v>
       </c>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
@@ -6618,16 +6618,16 @@
         <v>57</v>
       </c>
       <c r="G41" s="3">
-        <v>0.49881095398450198</v>
+        <v>0.83785200000000004</v>
       </c>
       <c r="H41" s="3">
-        <v>0.47074879001593201</v>
+        <v>0.58460100000000004</v>
       </c>
       <c r="I41" s="3">
         <v>1E-3</v>
       </c>
       <c r="J41" s="3">
-        <v>4381.890625</v>
+        <v>4377.24</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -6703,16 +6703,16 @@
         <v>58</v>
       </c>
       <c r="G44" s="3">
-        <v>0.45892055600415899</v>
+        <v>0.81938999999999995</v>
       </c>
       <c r="H44" s="3">
-        <v>0.48975006997352399</v>
+        <v>0.65889900000000001</v>
       </c>
       <c r="I44" s="3">
-        <v>2E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J44" s="3">
-        <v>4373.5703125</v>
+        <v>4377.24</v>
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
@@ -6792,16 +6792,16 @@
         <v>59</v>
       </c>
       <c r="G47" s="3">
-        <v>0.43597013998078099</v>
+        <v>1.0274300000000001</v>
       </c>
       <c r="H47" s="3">
-        <v>0.44482389796757998</v>
+        <v>0.74972799999999995</v>
       </c>
       <c r="I47" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>0.102551</v>
       </c>
       <c r="J47" s="3">
-        <v>3809.265625</v>
+        <v>4437.3</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -6877,16 +6877,16 @@
         <v>71</v>
       </c>
       <c r="G50" s="3">
-        <v>0.43502644594991502</v>
+        <v>0.77021899999999999</v>
       </c>
       <c r="H50" s="3">
-        <v>0.45709920796798498</v>
+        <v>0.64394499999999999</v>
       </c>
       <c r="I50" s="3">
-        <v>2.1499999999999998E-2</v>
+        <v>9.7548800000000005E-2</v>
       </c>
       <c r="J50" s="3">
-        <v>3824.8046875</v>
+        <v>4437.3</v>
       </c>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
@@ -6962,16 +6962,16 @@
         <v>73</v>
       </c>
       <c r="G53" s="3">
-        <v>0.47211205000000001</v>
+        <v>0.71264300000000003</v>
       </c>
       <c r="H53" s="3">
-        <v>0.45259934000000002</v>
+        <v>0.58107299999999995</v>
       </c>
       <c r="I53" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>9.1545799999999997E-2</v>
       </c>
       <c r="J53" s="3">
-        <v>3813.1796899999999</v>
+        <v>4437.3</v>
       </c>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -7053,16 +7053,16 @@
         <v>61</v>
       </c>
       <c r="G56" s="3">
-        <v>6.55782679</v>
+        <v>9.2280999999999995</v>
       </c>
       <c r="H56" s="3">
-        <v>4.7093091899999999</v>
+        <v>6.0417399999999999</v>
       </c>
       <c r="I56" s="3">
         <v>0</v>
       </c>
       <c r="J56" s="3">
-        <v>44346.898399999998</v>
+        <v>44346.9</v>
       </c>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
@@ -7138,16 +7138,16 @@
         <v>62</v>
       </c>
       <c r="G59" s="3">
-        <v>6.5337150900000003</v>
+        <v>10.049200000000001</v>
       </c>
       <c r="H59" s="3">
-        <v>4.4214962900000003</v>
+        <v>7.6186999999999996</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>44346.898399999998</v>
+        <v>44346.9</v>
       </c>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
@@ -7223,16 +7223,16 @@
         <v>63</v>
       </c>
       <c r="G62" s="3">
-        <v>6.0623761500000004</v>
+        <v>9.6735799999999994</v>
       </c>
       <c r="H62" s="3">
-        <v>4.6347673800000004</v>
+        <v>6.2213500000000002</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>44346.898399999998</v>
+        <v>44346.9</v>
       </c>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
@@ -7312,16 +7312,16 @@
         <v>64</v>
       </c>
       <c r="G65" s="3">
-        <v>6.8091585600000002</v>
+        <v>14.2156</v>
       </c>
       <c r="H65" s="3">
-        <v>4.4945391099999998</v>
+        <v>7.7441399999999998</v>
       </c>
       <c r="I65" s="3">
-        <v>1.25E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J65" s="3">
-        <v>43762.281300000002</v>
+        <v>43745.599999999999</v>
       </c>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
@@ -7397,16 +7397,16 @@
         <v>65</v>
       </c>
       <c r="G68" s="3">
-        <v>6.7160559700000002</v>
+        <v>9.5960900000000002</v>
       </c>
       <c r="H68" s="3">
-        <v>4.54798072</v>
+        <v>5.8493000000000004</v>
       </c>
       <c r="I68" s="3">
-        <v>1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J68" s="3">
-        <v>43757.265599999999</v>
+        <v>43745.599999999999</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
@@ -7482,16 +7482,16 @@
         <v>66</v>
       </c>
       <c r="G71" s="3">
-        <v>6.60853497</v>
+        <v>9.9154</v>
       </c>
       <c r="H71" s="3">
-        <v>4.8444073200000002</v>
+        <v>5.9918899999999997</v>
       </c>
       <c r="I71" s="3">
-        <v>1.25E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="J71" s="3">
-        <v>43795.5625</v>
+        <v>43745.599999999999</v>
       </c>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
@@ -7571,16 +7571,16 @@
         <v>67</v>
       </c>
       <c r="G74" s="3">
-        <v>5.5797752699999998</v>
+        <v>9.7339699999999993</v>
       </c>
       <c r="H74" s="3">
-        <v>4.6709717700000004</v>
+        <v>5.71333</v>
       </c>
       <c r="I74" s="3">
-        <v>0.2</v>
+        <v>9.8654900000000004E-2</v>
       </c>
       <c r="J74" s="3">
-        <v>22907.656299999999</v>
+        <v>44345.5</v>
       </c>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
@@ -7656,16 +7656,16 @@
         <v>74</v>
       </c>
       <c r="G77" s="3">
-        <v>5.0908943100000004</v>
+        <v>9.6201699999999999</v>
       </c>
       <c r="H77" s="3">
-        <v>4.9456964799999996</v>
+        <v>6.1563499999999998</v>
       </c>
       <c r="I77" s="3">
-        <v>0.20294999999999999</v>
+        <v>0.100005</v>
       </c>
       <c r="J77" s="3">
-        <v>22830.695299999999</v>
+        <v>44345.5</v>
       </c>
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
@@ -7741,16 +7741,16 @@
         <v>68</v>
       </c>
       <c r="G80" s="3">
-        <v>5.1747251199999997</v>
+        <v>10.0746</v>
       </c>
       <c r="H80" s="3">
-        <v>4.4218372600000002</v>
+        <v>6.4166499999999997</v>
       </c>
       <c r="I80" s="3">
-        <v>0.20954999999999999</v>
+        <v>0.100105</v>
       </c>
       <c r="J80" s="3">
-        <v>22879.390599999999</v>
+        <v>44345.5</v>
       </c>
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
@@ -8492,10 +8492,6 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="F128:F130"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="E134:E136"/>
     <mergeCell ref="F134:F136"/>
     <mergeCell ref="E104:E106"/>
     <mergeCell ref="F104:F106"/>
@@ -8521,6 +8517,10 @@
     <mergeCell ref="B128:B136"/>
     <mergeCell ref="C128:C136"/>
     <mergeCell ref="E128:E130"/>
+    <mergeCell ref="F128:F130"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="E134:E136"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F11:F13"/>
@@ -8631,7 +8631,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8763,19 +8763,19 @@
       </c>
       <c r="E5" s="2">
         <f>AVERAGE(exp2_details!G5,exp2_details!G8,exp2_details!G11)</f>
-        <v>3.5703204669213534E-2</v>
+        <v>4.1806796999960628E-2</v>
       </c>
       <c r="F5" s="2">
         <f>AVERAGE(exp2_details!H5,exp2_details!H8,exp2_details!H11)</f>
-        <v>4.5436103673030893E-2</v>
+        <v>4.6014856355909232E-2</v>
       </c>
       <c r="G5" s="2">
         <f>AVERAGE(exp2_details!I5,exp2_details!I8,exp2_details!I11)</f>
-        <v>0</v>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="H5" s="2">
         <f>AVERAGE(exp2_details!J5,exp2_details!J8,exp2_details!J11)</f>
-        <v>444.5625</v>
+        <v>444.07291666666669</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -8839,19 +8839,19 @@
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(exp2_details!G8,exp2_details!G11,exp2_details!G14)</f>
-        <v>3.5939265993268528E-2</v>
+        <v>4.9170039328796163E-2</v>
       </c>
       <c r="F8" s="2">
         <f>AVERAGE(exp2_details!H8,exp2_details!H11,exp2_details!H14)</f>
-        <v>4.520359200735883E-2</v>
+        <v>5.6511584349777523E-2</v>
       </c>
       <c r="G8" s="2">
         <f>AVERAGE(exp2_details!I8,exp2_details!I11,exp2_details!I14)</f>
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="H8" s="2">
         <f>AVERAGE(exp2_details!J8,exp2_details!J11,exp2_details!J14)</f>
-        <v>442.15625</v>
+        <v>441.91145833333331</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(exp2_details!G29,exp2_details!G32,exp2_details!G35)</f>
-        <v>0.50221882832463638</v>
+        <v>0.75416666666666654</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>

--- a/report/experiments/1d.xlsx
+++ b/report/experiments/1d.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/QVO/code/xzyao/projects/index/msc-project/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8CEE0DB8-6B5A-0543-A88A-2D336F5D5F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3993EE9F-AC18-664D-8754-512FCDEA6207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp1_details" sheetId="3" r:id="rId1"/>
     <sheet name="exp1_summary" sheetId="4" r:id="rId2"/>
     <sheet name="exp2_details" sheetId="1" r:id="rId3"/>
     <sheet name="exp2_summary" sheetId="2" r:id="rId4"/>
+    <sheet name="exp2_temporary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="549" uniqueCount="75">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="557" uniqueCount="83">
   <si>
     <t>Dimensions</t>
   </si>
@@ -261,6 +262,30 @@
   </si>
   <si>
     <t>9462a100</t>
+  </si>
+  <si>
+    <t>833b6b1c</t>
+  </si>
+  <si>
+    <t>92e0799c</t>
+  </si>
+  <si>
+    <t>791cc7c5</t>
+  </si>
+  <si>
+    <t>fa671778</t>
+  </si>
+  <si>
+    <t>270e0db2</t>
+  </si>
+  <si>
+    <t>39da2a7c</t>
+  </si>
+  <si>
+    <t>7d5b0253</t>
+  </si>
+  <si>
+    <t>Query Time per Key</t>
   </si>
 </sst>
 </file>
@@ -799,7 +824,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -875,26 +900,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5423,8 +5449,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G82" sqref="G2:J82"/>
+    <sheetView topLeftCell="A71" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5495,16 +5521,16 @@
         <v>46</v>
       </c>
       <c r="G2" s="3">
-        <v>3.6664529994595699E-2</v>
+        <v>8.9210200000000003E-2</v>
       </c>
       <c r="H2" s="3">
-        <v>5.07293020491488E-2</v>
+        <v>5.6772400000000001E-2</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>446.234375</v>
+        <v>446.23399999999998</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
@@ -5580,16 +5606,16 @@
         <v>47</v>
       </c>
       <c r="G5" s="3">
-        <v>3.7811673013493398E-2</v>
+        <v>4.54151E-2</v>
       </c>
       <c r="H5" s="3">
-        <v>4.2205816018395098E-2</v>
+        <v>3.64173E-2</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>446.234375</v>
+        <v>446.23399999999998</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -5661,20 +5687,20 @@
       <c r="E8" s="29">
         <v>3</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="32" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="3">
-        <v>3.3107617986388498E-2</v>
+        <v>0.10582</v>
       </c>
       <c r="H8" s="3">
-        <v>4.39272530493326E-2</v>
+        <v>5.4859600000000001E-2</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>446.234375</v>
+        <v>446.23399999999998</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -6270,7 +6296,7 @@
       <c r="E29" s="29">
         <v>1</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G29" s="3">
@@ -6299,7 +6325,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="29"/>
-      <c r="F30" s="32"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="3">
         <v>135.585526263981</v>
       </c>
@@ -6326,7 +6352,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="31"/>
       <c r="G31" s="3">
         <v>994.52015342202503</v>
       </c>
@@ -6440,7 +6466,7 @@
       <c r="E35" s="29">
         <v>3</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="32" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="3">
@@ -7567,7 +7593,7 @@
       <c r="E74" s="29">
         <v>1</v>
       </c>
-      <c r="F74" s="31" t="s">
+      <c r="F74" s="32" t="s">
         <v>67</v>
       </c>
       <c r="G74" s="3">
@@ -7828,11 +7854,21 @@
       <c r="E83" s="29">
         <v>1</v>
       </c>
-      <c r="F83" s="33"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="F83" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G83" s="3">
+        <v>128.20400000000001</v>
+      </c>
+      <c r="H83" s="3">
+        <v>67.146199999999993</v>
+      </c>
+      <c r="I83" s="3">
+        <v>9.9826499999999999E-2</v>
+      </c>
+      <c r="J83" s="37">
+        <v>444583</v>
+      </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="29"/>
@@ -7842,11 +7878,19 @@
         <v>11</v>
       </c>
       <c r="E84" s="29"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="3">
+        <v>13397.115430411999</v>
+      </c>
+      <c r="H84" s="3">
+        <v>116.69103307405</v>
+      </c>
+      <c r="I84" s="3">
+        <v>150.22358500000001</v>
+      </c>
+      <c r="J84" s="3">
+        <v>28.515625</v>
+      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
@@ -7856,11 +7900,19 @@
         <v>12</v>
       </c>
       <c r="E85" s="29"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="3">
+        <v>8431.2620896680692</v>
+      </c>
+      <c r="H85" s="3">
+        <v>261.16280181694299</v>
+      </c>
+      <c r="I85" s="3">
+        <v>275.50619</v>
+      </c>
+      <c r="J85" s="3">
+        <v>61.9921875</v>
+      </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="29"/>
@@ -7872,11 +7924,21 @@
       <c r="E86" s="30">
         <v>2</v>
       </c>
-      <c r="F86" s="29"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="F86" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G86" s="3">
+        <v>122.51</v>
+      </c>
+      <c r="H86" s="3">
+        <v>65.766199999999998</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="37">
+        <v>444583</v>
+      </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="29"/>
@@ -7887,10 +7949,18 @@
       </c>
       <c r="E87" s="30"/>
       <c r="F87" s="29"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="G87" s="3">
+        <v>13728.4467993819</v>
+      </c>
+      <c r="H87" s="3">
+        <v>118.905526515969</v>
+      </c>
+      <c r="I87" s="3">
+        <v>188.78162499999999</v>
+      </c>
+      <c r="J87" s="3">
+        <v>28.515625</v>
+      </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="29"/>
@@ -7901,10 +7971,18 @@
       </c>
       <c r="E88" s="30"/>
       <c r="F88" s="29"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="G88" s="3">
+        <v>8977.8839493480009</v>
+      </c>
+      <c r="H88" s="3">
+        <v>275.48420359299001</v>
+      </c>
+      <c r="I88" s="3">
+        <v>18938.139480000002</v>
+      </c>
+      <c r="J88" s="3">
+        <v>18456.1875</v>
+      </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="29"/>
@@ -7916,11 +7994,21 @@
       <c r="E89" s="29">
         <v>3</v>
       </c>
-      <c r="F89" s="30"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="F89" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G89" s="3">
+        <v>120.34</v>
+      </c>
+      <c r="H89" s="3">
+        <v>66.765100000000004</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="37">
+        <v>444583</v>
+      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="29"/>
@@ -7931,10 +8019,18 @@
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="30"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="G90" s="3">
+        <v>13709.4894</v>
+      </c>
+      <c r="H90" s="3">
+        <v>127.325777</v>
+      </c>
+      <c r="I90" s="3">
+        <v>69.887204999999994</v>
+      </c>
+      <c r="J90" s="3">
+        <v>28.515625</v>
+      </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="29"/>
@@ -7945,10 +8041,18 @@
       </c>
       <c r="E91" s="29"/>
       <c r="F91" s="30"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="G91" s="3">
+        <v>9209.4228399999993</v>
+      </c>
+      <c r="H91" s="3">
+        <v>281.25911200000002</v>
+      </c>
+      <c r="I91" s="3">
+        <v>100.880505</v>
+      </c>
+      <c r="J91" s="3">
+        <v>32069.218799999999</v>
+      </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="29"/>
@@ -7964,11 +8068,21 @@
       <c r="E92" s="29">
         <v>1</v>
       </c>
-      <c r="F92" s="29"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="F92" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" s="3">
+        <v>127.607</v>
+      </c>
+      <c r="H92" s="3">
+        <v>67.233199999999997</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="37">
+        <v>438666</v>
+      </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="29"/>
@@ -7979,10 +8093,18 @@
       </c>
       <c r="E93" s="29"/>
       <c r="F93" s="29"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="G93" s="3">
+        <v>296.97463599999998</v>
+      </c>
+      <c r="H93" s="3">
+        <v>148.41375099999999</v>
+      </c>
+      <c r="I93" s="3">
+        <v>147418154</v>
+      </c>
+      <c r="J93" s="3">
+        <v>28.515625</v>
+      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="29"/>
@@ -7993,10 +8115,18 @@
       </c>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+      <c r="G94" s="3">
+        <v>1183.7641599999999</v>
+      </c>
+      <c r="H94" s="3">
+        <v>397.24357300000003</v>
+      </c>
+      <c r="I94" s="3">
+        <v>49971062</v>
+      </c>
+      <c r="J94" s="3">
+        <v>3750.0546899999999</v>
+      </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="29"/>
@@ -8008,11 +8138,21 @@
       <c r="E95" s="30">
         <v>2</v>
       </c>
-      <c r="F95" s="29"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="F95" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G95" s="3">
+        <v>159.53399999999999</v>
+      </c>
+      <c r="H95" s="3">
+        <v>67.230199999999996</v>
+      </c>
+      <c r="I95" s="3">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="J95" s="37">
+        <v>438666</v>
+      </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="29"/>
@@ -8023,10 +8163,18 @@
       </c>
       <c r="E96" s="30"/>
       <c r="F96" s="29"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="G96" s="3">
+        <v>309.51980800000001</v>
+      </c>
+      <c r="H96" s="3">
+        <v>202.17394100000001</v>
+      </c>
+      <c r="I96" s="3">
+        <v>3334095058</v>
+      </c>
+      <c r="J96" s="3">
+        <v>28.515625</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="29"/>
@@ -8037,10 +8185,18 @@
       </c>
       <c r="E97" s="30"/>
       <c r="F97" s="29"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="G97" s="3">
+        <v>1371.4509499999999</v>
+      </c>
+      <c r="H97" s="3">
+        <v>482.923948</v>
+      </c>
+      <c r="I97" s="3">
+        <v>6140439.1699999999</v>
+      </c>
+      <c r="J97" s="3">
+        <v>8940.6796900000008</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="29"/>
@@ -8052,11 +8208,21 @@
       <c r="E98" s="29">
         <v>3</v>
       </c>
-      <c r="F98" s="30"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="F98" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G98" s="3">
+        <v>120.48099999999999</v>
+      </c>
+      <c r="H98" s="3">
+        <v>67.389300000000006</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1.565E-3</v>
+      </c>
+      <c r="J98" s="37">
+        <v>438666</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="29"/>
@@ -8067,10 +8233,18 @@
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="30"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="G99" s="3">
+        <v>316.58371</v>
+      </c>
+      <c r="H99" s="3">
+        <v>175.42542800000001</v>
+      </c>
+      <c r="I99" s="3">
+        <v>322809288</v>
+      </c>
+      <c r="J99" s="3">
+        <v>28.515625</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="29"/>
@@ -8081,17 +8255,25 @@
       </c>
       <c r="E100" s="29"/>
       <c r="F100" s="30"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="G100" s="3">
+        <v>1171.1716100000001</v>
+      </c>
+      <c r="H100" s="3">
+        <v>434.61725200000001</v>
+      </c>
+      <c r="I100" s="3">
+        <v>261267.69399999999</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6189.6484399999999</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="29"/>
       <c r="B101" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="33" t="s">
         <v>44</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -8100,20 +8282,20 @@
       <c r="E101" s="29">
         <v>1</v>
       </c>
-      <c r="F101" s="31" t="s">
+      <c r="F101" s="32" t="s">
         <v>69</v>
       </c>
       <c r="G101" s="3">
-        <v>54.736408099999998</v>
+        <v>122.809</v>
       </c>
       <c r="H101" s="3">
-        <v>46.492092599999999</v>
+        <v>66.4542</v>
       </c>
       <c r="I101" s="3">
-        <v>11.24277</v>
+        <v>0.100186</v>
       </c>
       <c r="J101" s="3">
-        <v>105755.633</v>
+        <v>444582</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -8170,11 +8352,21 @@
       <c r="E104" s="30">
         <v>2</v>
       </c>
-      <c r="F104" s="29"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="F104" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G104" s="3">
+        <v>124.84699999999999</v>
+      </c>
+      <c r="H104" s="3">
+        <v>86.072500000000005</v>
+      </c>
+      <c r="I104" s="3">
+        <v>9.9415500000000004E-2</v>
+      </c>
+      <c r="J104" s="37">
+        <v>444582</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="29"/>
@@ -8185,10 +8377,18 @@
       </c>
       <c r="E105" s="30"/>
       <c r="F105" s="29"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="G105" s="3">
+        <v>17709.027900000001</v>
+      </c>
+      <c r="H105" s="3">
+        <v>119.480486</v>
+      </c>
+      <c r="I105" s="3">
+        <v>832420388</v>
+      </c>
+      <c r="J105" s="3">
+        <v>28.515625</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="29"/>
@@ -8199,10 +8399,18 @@
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="29"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="G106" s="3">
+        <v>9547.8684400000002</v>
+      </c>
+      <c r="H106" s="3">
+        <v>275.241894</v>
+      </c>
+      <c r="I106" s="3">
+        <v>4018913.31</v>
+      </c>
+      <c r="J106" s="3">
+        <v>28914.140599999999</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="29"/>
@@ -8280,7 +8488,7 @@
       <c r="C110" s="28"/>
       <c r="D110" s="24"/>
       <c r="E110" s="28"/>
-      <c r="F110" s="35"/>
+      <c r="F110" s="36"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="28"/>
@@ -8288,7 +8496,7 @@
       <c r="C111" s="28"/>
       <c r="D111" s="24"/>
       <c r="E111" s="28"/>
-      <c r="F111" s="35"/>
+      <c r="F111" s="36"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="28"/>
@@ -8296,14 +8504,14 @@
       <c r="C112" s="28"/>
       <c r="D112" s="24"/>
       <c r="E112" s="28"/>
-      <c r="F112" s="35"/>
+      <c r="F112" s="36"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="28"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="24"/>
-      <c r="E113" s="36"/>
+      <c r="E113" s="35"/>
       <c r="F113" s="28"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -8311,7 +8519,7 @@
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="24"/>
-      <c r="E114" s="36"/>
+      <c r="E114" s="35"/>
       <c r="F114" s="28"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -8319,7 +8527,7 @@
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="24"/>
-      <c r="E115" s="36"/>
+      <c r="E115" s="35"/>
       <c r="F115" s="28"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -8328,7 +8536,7 @@
       <c r="C116" s="28"/>
       <c r="D116" s="24"/>
       <c r="E116" s="28"/>
-      <c r="F116" s="36"/>
+      <c r="F116" s="35"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="28"/>
@@ -8336,7 +8544,7 @@
       <c r="C117" s="28"/>
       <c r="D117" s="24"/>
       <c r="E117" s="28"/>
-      <c r="F117" s="36"/>
+      <c r="F117" s="35"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="28"/>
@@ -8344,7 +8552,7 @@
       <c r="C118" s="28"/>
       <c r="D118" s="24"/>
       <c r="E118" s="28"/>
-      <c r="F118" s="36"/>
+      <c r="F118" s="35"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="28"/>
@@ -8375,7 +8583,7 @@
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="24"/>
-      <c r="E122" s="36"/>
+      <c r="E122" s="35"/>
       <c r="F122" s="28"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -8383,7 +8591,7 @@
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="24"/>
-      <c r="E123" s="36"/>
+      <c r="E123" s="35"/>
       <c r="F123" s="28"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -8391,7 +8599,7 @@
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="24"/>
-      <c r="E124" s="36"/>
+      <c r="E124" s="35"/>
       <c r="F124" s="28"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -8400,7 +8608,7 @@
       <c r="C125" s="28"/>
       <c r="D125" s="24"/>
       <c r="E125" s="28"/>
-      <c r="F125" s="36"/>
+      <c r="F125" s="35"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="28"/>
@@ -8408,7 +8616,7 @@
       <c r="C126" s="28"/>
       <c r="D126" s="24"/>
       <c r="E126" s="28"/>
-      <c r="F126" s="36"/>
+      <c r="F126" s="35"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="28"/>
@@ -8416,7 +8624,7 @@
       <c r="C127" s="28"/>
       <c r="D127" s="24"/>
       <c r="E127" s="28"/>
-      <c r="F127" s="36"/>
+      <c r="F127" s="35"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="28"/>
@@ -8424,7 +8632,7 @@
       <c r="C128" s="28"/>
       <c r="D128" s="24"/>
       <c r="E128" s="28"/>
-      <c r="F128" s="37"/>
+      <c r="F128" s="34"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="28"/>
@@ -8447,7 +8655,7 @@
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="24"/>
-      <c r="E131" s="36"/>
+      <c r="E131" s="35"/>
       <c r="F131" s="28"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -8455,7 +8663,7 @@
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="24"/>
-      <c r="E132" s="36"/>
+      <c r="E132" s="35"/>
       <c r="F132" s="28"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -8463,7 +8671,7 @@
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="24"/>
-      <c r="E133" s="36"/>
+      <c r="E133" s="35"/>
       <c r="F133" s="28"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -8472,7 +8680,7 @@
       <c r="C134" s="28"/>
       <c r="D134" s="24"/>
       <c r="E134" s="28"/>
-      <c r="F134" s="35"/>
+      <c r="F134" s="36"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="28"/>
@@ -8480,7 +8688,7 @@
       <c r="C135" s="28"/>
       <c r="D135" s="24"/>
       <c r="E135" s="28"/>
-      <c r="F135" s="35"/>
+      <c r="F135" s="36"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="28"/>
@@ -8488,7 +8696,7 @@
       <c r="C136" s="28"/>
       <c r="D136" s="24"/>
       <c r="E136" s="28"/>
-      <c r="F136" s="35"/>
+      <c r="F136" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="125">
@@ -8551,6 +8759,19 @@
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B20:B28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F77:F79"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
@@ -8563,14 +8784,6 @@
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="C11:C19"/>
     <mergeCell ref="C20:C28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="F62:F64"/>
     <mergeCell ref="A29:A55"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="C29:C37"/>
@@ -8593,9 +8806,9 @@
     <mergeCell ref="E47:E49"/>
     <mergeCell ref="F47:F49"/>
     <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F68:F70"/>
     <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F56:F58"/>
     <mergeCell ref="A56:A82"/>
     <mergeCell ref="B56:B64"/>
     <mergeCell ref="C56:C64"/>
@@ -8612,11 +8825,6 @@
     <mergeCell ref="E74:E76"/>
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F56:F58"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8628,10 +8836,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8644,9 +8852,10 @@
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8671,8 +8880,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -8687,11 +8899,11 @@
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(exp2_details!G2,exp2_details!G5,exp2_details!G8)</f>
-        <v>3.5861273664825867E-2</v>
+        <v>8.0148433333333338E-2</v>
       </c>
       <c r="F2" s="2">
         <f>AVERAGE(exp2_details!H2,exp2_details!H5,exp2_details!H8)</f>
-        <v>4.5620790372292164E-2</v>
+        <v>4.9349766666666663E-2</v>
       </c>
       <c r="G2" s="2">
         <f>AVERAGE(exp2_details!I2,exp2_details!I5,exp2_details!I8)</f>
@@ -8699,10 +8911,14 @@
       </c>
       <c r="H2" s="2">
         <f>AVERAGE(exp2_details!J2,exp2_details!J5,exp2_details!J8)</f>
-        <v>446.234375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>446.23399999999998</v>
+      </c>
+      <c r="I2" s="38">
+        <f>(F2/1000)</f>
+        <v>4.934976666666666E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -8725,8 +8941,12 @@
         <f>AVERAGE(exp2_details!J3,exp2_details!J6,exp2_details!J9)</f>
         <v>28.515625</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="38">
+        <f>(F3/1000)</f>
+        <v>1.3437450298806565E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -8749,8 +8969,12 @@
         <f>AVERAGE(exp2_details!J4,exp2_details!J7,exp2_details!J10)</f>
         <v>4805.135416666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="38">
+        <f>(F4/1000)</f>
+        <v>2.8905264868323331E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
         <v>15</v>
@@ -8763,11 +8987,11 @@
       </c>
       <c r="E5" s="2">
         <f>AVERAGE(exp2_details!G5,exp2_details!G8,exp2_details!G11)</f>
-        <v>4.1806796999960628E-2</v>
+        <v>6.8578733333333336E-2</v>
       </c>
       <c r="F5" s="2">
         <f>AVERAGE(exp2_details!H5,exp2_details!H8,exp2_details!H11)</f>
-        <v>4.6014856355909232E-2</v>
+        <v>4.7729466666666664E-2</v>
       </c>
       <c r="G5" s="2">
         <f>AVERAGE(exp2_details!I5,exp2_details!I8,exp2_details!I11)</f>
@@ -8775,10 +8999,14 @@
       </c>
       <c r="H5" s="2">
         <f>AVERAGE(exp2_details!J5,exp2_details!J8,exp2_details!J11)</f>
-        <v>444.07291666666669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>444.07266666666663</v>
+      </c>
+      <c r="I5" s="38">
+        <f>(F5/1000)</f>
+        <v>4.7729466666666664E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -8801,8 +9029,12 @@
         <f>AVERAGE(exp2_details!J6,exp2_details!J9,exp2_details!J12)</f>
         <v>28.515625</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="38">
+        <f>(F6/1000)</f>
+        <v>1.3734757533529699E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -8825,8 +9057,12 @@
         <f>AVERAGE(exp2_details!J7,exp2_details!J10,exp2_details!J13)</f>
         <v>4767.96875</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="38">
+        <f>(F7/1000)</f>
+        <v>2.7525479067116906E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="26" t="s">
         <v>14</v>
@@ -8839,11 +9075,11 @@
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(exp2_details!G8,exp2_details!G11,exp2_details!G14)</f>
-        <v>4.9170039328796163E-2</v>
+        <v>7.3407500000000001E-2</v>
       </c>
       <c r="F8" s="2">
         <f>AVERAGE(exp2_details!H8,exp2_details!H11,exp2_details!H14)</f>
-        <v>5.6511584349777523E-2</v>
+        <v>6.0155699999999999E-2</v>
       </c>
       <c r="G8" s="2">
         <f>AVERAGE(exp2_details!I8,exp2_details!I11,exp2_details!I14)</f>
@@ -8851,10 +9087,14 @@
       </c>
       <c r="H8" s="2">
         <f>AVERAGE(exp2_details!J8,exp2_details!J11,exp2_details!J14)</f>
-        <v>441.91145833333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>441.91133333333329</v>
+      </c>
+      <c r="I8" s="38">
+        <f>(F8/1000)</f>
+        <v>6.0155699999999997E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -8877,8 +9117,12 @@
         <f>AVERAGE(exp2_details!J9,exp2_details!J12,exp2_details!J15)</f>
         <v>28.515625</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="38">
+        <f>(F9/1000)</f>
+        <v>1.3824949134141131E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -8901,8 +9145,12 @@
         <f>AVERAGE(exp2_details!J10,exp2_details!J13,exp2_details!J16)</f>
         <v>4424.9921875</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="38">
+        <f>(F10/1000)</f>
+        <v>2.7348688365115396E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="26" t="s">
         <v>9</v>
@@ -8917,35 +9165,80 @@
         <f>AVERAGE(exp2_details!G29,exp2_details!G32,exp2_details!G35)</f>
         <v>0.75416666666666654</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <f>AVERAGE(exp2_details!H29,exp2_details!H32,exp2_details!H35)</f>
+        <v>0.57449399999999995</v>
+      </c>
+      <c r="G11" s="2">
+        <f>AVERAGE(exp2_details!I29,exp2_details!I32,exp2_details!I35)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f>AVERAGE(exp2_details!J29,exp2_details!J32,exp2_details!J35)</f>
+        <v>4438.66</v>
+      </c>
+      <c r="I11" s="38">
+        <f>(F11/10000)</f>
+        <v>5.7449399999999992E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="2">
+        <f>AVERAGE(exp2_details!G30,exp2_details!G33,exp2_details!G36)</f>
+        <v>138.36878611466034</v>
+      </c>
+      <c r="F12" s="2">
+        <f>AVERAGE(exp2_details!H30,exp2_details!H33,exp2_details!H36)</f>
+        <v>1.2080583893310599</v>
+      </c>
+      <c r="G12" s="2">
+        <f>AVERAGE(exp2_details!I30,exp2_details!I33,exp2_details!I36)</f>
+        <v>1.5051666666666668</v>
+      </c>
+      <c r="H12" s="2">
+        <f>AVERAGE(exp2_details!J30,exp2_details!J33,exp2_details!J36)</f>
+        <v>28.515625</v>
+      </c>
+      <c r="I12" s="38">
+        <f>(F12/10000)</f>
+        <v>1.2080583893310599E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="2">
+        <f>AVERAGE(exp2_details!G31,exp2_details!G34,exp2_details!G37)</f>
+        <v>1026.418856358335</v>
+      </c>
+      <c r="F13" s="2">
+        <f>AVERAGE(exp2_details!H31,exp2_details!H34,exp2_details!H37)</f>
+        <v>2.7968091586692698</v>
+      </c>
+      <c r="G13" s="2">
+        <f>AVERAGE(exp2_details!I31,exp2_details!I34,exp2_details!I37)</f>
+        <v>0.10533333333333333</v>
+      </c>
+      <c r="H13" s="2">
+        <f>AVERAGE(exp2_details!J31,exp2_details!J34,exp2_details!J37)</f>
+        <v>29735.898454166669</v>
+      </c>
+      <c r="I13" s="38">
+        <f>(F13/10000)</f>
+        <v>2.7968091586692698E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="26" t="s">
         <v>15</v>
@@ -8956,36 +9249,84 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="2">
+        <f>AVERAGE(exp2_details!G38,exp2_details!G41,exp2_details!G44)</f>
+        <v>0.80366566666666672</v>
+      </c>
+      <c r="F14" s="2">
+        <f>AVERAGE(exp2_details!H38,exp2_details!H41,exp2_details!H44)</f>
+        <v>0.59976266666666656</v>
+      </c>
+      <c r="G14" s="2">
+        <f>AVERAGE(exp2_details!I38,exp2_details!I41,exp2_details!I44)</f>
+        <v>1.5000000000000002E-3</v>
+      </c>
+      <c r="H14" s="2">
+        <f>AVERAGE(exp2_details!J38,exp2_details!J41,exp2_details!J44)</f>
+        <v>4377.24</v>
+      </c>
+      <c r="I14" s="38">
+        <f>(F14/10000)</f>
+        <v>5.9976266666666657E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="2">
+        <f>AVERAGE(exp2_details!G39,exp2_details!G42,exp2_details!G45)</f>
+        <v>138.56150774432635</v>
+      </c>
+      <c r="F15" s="2">
+        <f>AVERAGE(exp2_details!H39,exp2_details!H42,exp2_details!H45)</f>
+        <v>1.2110876530059567</v>
+      </c>
+      <c r="G15" s="2">
+        <f>AVERAGE(exp2_details!I39,exp2_details!I42,exp2_details!I45)</f>
+        <v>4.3993333333333338</v>
+      </c>
+      <c r="H15" s="2">
+        <f>AVERAGE(exp2_details!J39,exp2_details!J42,exp2_details!J45)</f>
+        <v>28.515625</v>
+      </c>
+      <c r="I15" s="38">
+        <f>(F15/10000)</f>
+        <v>1.2110876530059566E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="2">
+        <f>AVERAGE(exp2_details!G40,exp2_details!G43,exp2_details!G46)</f>
+        <v>688.26819676801063</v>
+      </c>
+      <c r="F16" s="2">
+        <f>AVERAGE(exp2_details!H40,exp2_details!H43,exp2_details!H46)</f>
+        <v>2.7168865276810963</v>
+      </c>
+      <c r="G16" s="2">
+        <f>AVERAGE(exp2_details!I40,exp2_details!I43,exp2_details!I46)</f>
+        <v>1.8078333333333332</v>
+      </c>
+      <c r="H16" s="2">
+        <f>AVERAGE(exp2_details!J40,exp2_details!J43,exp2_details!J46)</f>
+        <v>20226.9453125</v>
+      </c>
+      <c r="I16" s="38">
+        <f>(F16/10000)</f>
+        <v>2.716886527681096E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="26" t="s">
         <v>14</v>
@@ -8996,36 +9337,84 @@
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="2">
+        <f>AVERAGE(exp2_details!G47,exp2_details!G50,exp2_details!G53)</f>
+        <v>0.83676400000000006</v>
+      </c>
+      <c r="F17" s="2">
+        <f>AVERAGE(exp2_details!H47,exp2_details!H50,exp2_details!H53)</f>
+        <v>0.65824866666666659</v>
+      </c>
+      <c r="G17" s="2">
+        <f>AVERAGE(exp2_details!I47,exp2_details!I50,exp2_details!I53)</f>
+        <v>9.7215200000000002E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <f>AVERAGE(exp2_details!J47,exp2_details!J50,exp2_details!J53)</f>
+        <v>4437.3</v>
+      </c>
+      <c r="I17" s="38">
+        <f>(F17/10000)</f>
+        <v>6.5824866666666654E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="2">
+        <f>AVERAGE(exp2_details!G48,exp2_details!G51,exp2_details!G54)</f>
+        <v>137.55656157200667</v>
+      </c>
+      <c r="F18" s="2">
+        <f>AVERAGE(exp2_details!H48,exp2_details!H51,exp2_details!H54)</f>
+        <v>1.1726889423228366</v>
+      </c>
+      <c r="G18" s="2">
+        <f>AVERAGE(exp2_details!I48,exp2_details!I51,exp2_details!I54)</f>
+        <v>83771.877833333332</v>
+      </c>
+      <c r="H18" s="2">
+        <f>AVERAGE(exp2_details!J48,exp2_details!J51,exp2_details!J54)</f>
+        <v>28.515625</v>
+      </c>
+      <c r="I18" s="38">
+        <f>(F18/10000)</f>
+        <v>1.1726889423228366E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="2">
+        <f>AVERAGE(exp2_details!G49,exp2_details!G52,exp2_details!G55)</f>
+        <v>561.05491282166292</v>
+      </c>
+      <c r="F19" s="2">
+        <f>AVERAGE(exp2_details!H49,exp2_details!H52,exp2_details!H55)</f>
+        <v>2.6468370120246765</v>
+      </c>
+      <c r="G19" s="2">
+        <f>AVERAGE(exp2_details!I49,exp2_details!I52,exp2_details!I55)</f>
+        <v>30089.252833333336</v>
+      </c>
+      <c r="H19" s="2">
+        <f>AVERAGE(exp2_details!J49,exp2_details!J52,exp2_details!J55)</f>
+        <v>15838.604179166667</v>
+      </c>
+      <c r="I19" s="38">
+        <f>(F19/10000)</f>
+        <v>2.6468370120246766E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="26" t="s">
         <v>9</v>
@@ -9036,36 +9425,84 @@
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="2">
+        <f>AVERAGE(exp2_details!G56,exp2_details!G59,exp2_details!G62)</f>
+        <v>9.6502933333333321</v>
+      </c>
+      <c r="F20" s="2">
+        <f>AVERAGE(exp2_details!H56,exp2_details!H59,exp2_details!H62)</f>
+        <v>6.6272633333333326</v>
+      </c>
+      <c r="G20" s="2">
+        <f>AVERAGE(exp2_details!I56,exp2_details!I59,exp2_details!I62)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <f>AVERAGE(exp2_details!J56,exp2_details!J59,exp2_details!J62)</f>
+        <v>44346.9</v>
+      </c>
+      <c r="I20" s="38">
+        <f>(F20/100000)</f>
+        <v>6.627263333333332E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="2">
+        <f>AVERAGE(exp2_details!G57,exp2_details!G60,exp2_details!G63)</f>
+        <v>1328.8852466666667</v>
+      </c>
+      <c r="F21" s="2">
+        <f>AVERAGE(exp2_details!H57,exp2_details!H60,exp2_details!H63)</f>
+        <v>11.1058714</v>
+      </c>
+      <c r="G21" s="2">
+        <f>AVERAGE(exp2_details!I57,exp2_details!I60,exp2_details!I63)</f>
+        <v>12.269083333333333</v>
+      </c>
+      <c r="H21" s="2">
+        <f>AVERAGE(exp2_details!J57,exp2_details!J60,exp2_details!J63)</f>
+        <v>28.515625</v>
+      </c>
+      <c r="I21" s="38">
+        <f>(F21/100000)</f>
+        <v>1.11058714E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="2">
+        <f>AVERAGE(exp2_details!G58,exp2_details!G61,exp2_details!G64)</f>
+        <v>1273.0708199999999</v>
+      </c>
+      <c r="F22" s="2">
+        <f>AVERAGE(exp2_details!H58,exp2_details!H61,exp2_details!H64)</f>
+        <v>26.041967666666665</v>
+      </c>
+      <c r="G22" s="2">
+        <f>AVERAGE(exp2_details!I58,exp2_details!I61,exp2_details!I64)</f>
+        <v>214.08624999999998</v>
+      </c>
+      <c r="H22" s="2">
+        <f>AVERAGE(exp2_details!J58,exp2_details!J61,exp2_details!J64)</f>
+        <v>17979.096366666665</v>
+      </c>
+      <c r="I22" s="38">
+        <f>(F22/100000)</f>
+        <v>2.6041967666666667E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="26" t="s">
         <v>15</v>
@@ -9076,36 +9513,84 @@
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="2">
+        <f>AVERAGE(exp2_details!G65,exp2_details!G68,exp2_details!G71)</f>
+        <v>11.242363333333332</v>
+      </c>
+      <c r="F23" s="2">
+        <f>AVERAGE(exp2_details!H65,exp2_details!H68,exp2_details!H71)</f>
+        <v>6.5284433333333327</v>
+      </c>
+      <c r="G23" s="2">
+        <f>AVERAGE(exp2_details!I65,exp2_details!I68,exp2_details!I71)</f>
+        <v>1.2666666666666666E-3</v>
+      </c>
+      <c r="H23" s="2">
+        <f>AVERAGE(exp2_details!J65,exp2_details!J68,exp2_details!J71)</f>
+        <v>43745.599999999999</v>
+      </c>
+      <c r="I23" s="38">
+        <f>(F23/100000)</f>
+        <v>6.5284433333333321E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E24" s="2">
+        <f>AVERAGE(exp2_details!G66,exp2_details!G69,exp2_details!G72)</f>
+        <v>1393.1138300000002</v>
+      </c>
+      <c r="F24" s="2">
+        <f>AVERAGE(exp2_details!H66,exp2_details!H69,exp2_details!H72)</f>
+        <v>10.81866735</v>
+      </c>
+      <c r="G24" s="2">
+        <f>AVERAGE(exp2_details!I66,exp2_details!I69,exp2_details!I72)</f>
+        <v>38.888333333333328</v>
+      </c>
+      <c r="H24" s="2">
+        <f>AVERAGE(exp2_details!J66,exp2_details!J69,exp2_details!J72)</f>
+        <v>28.515625</v>
+      </c>
+      <c r="I24" s="38">
+        <f>(F24/100000)</f>
+        <v>1.081866735E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="2">
+        <f>AVERAGE(exp2_details!G67,exp2_details!G70,exp2_details!G73)</f>
+        <v>1481.8813499999999</v>
+      </c>
+      <c r="F25" s="2">
+        <f>AVERAGE(exp2_details!H67,exp2_details!H70,exp2_details!H73)</f>
+        <v>24.541677366666665</v>
+      </c>
+      <c r="G25" s="2">
+        <f>AVERAGE(exp2_details!I67,exp2_details!I70,exp2_details!I73)</f>
+        <v>11199.254683333333</v>
+      </c>
+      <c r="H25" s="2">
+        <f>AVERAGE(exp2_details!J67,exp2_details!J70,exp2_details!J73)</f>
+        <v>25438.752633333334</v>
+      </c>
+      <c r="I25" s="38">
+        <f>(F25/100000)</f>
+        <v>2.4541677366666663E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="26" t="s">
         <v>14</v>
@@ -9116,36 +9601,84 @@
       <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E26" s="2">
+        <f>AVERAGE(exp2_details!G74,exp2_details!G77,exp2_details!G80)</f>
+        <v>9.8095800000000004</v>
+      </c>
+      <c r="F26" s="2">
+        <f>AVERAGE(exp2_details!H74,exp2_details!H77,exp2_details!H80)</f>
+        <v>6.0954433333333329</v>
+      </c>
+      <c r="G26" s="2">
+        <f>AVERAGE(exp2_details!I74,exp2_details!I77,exp2_details!I80)</f>
+        <v>9.9588300000000005E-2</v>
+      </c>
+      <c r="H26" s="2">
+        <f>AVERAGE(exp2_details!J74,exp2_details!J77,exp2_details!J80)</f>
+        <v>44345.5</v>
+      </c>
+      <c r="I26" s="38">
+        <f>(F26/100000)</f>
+        <v>6.0954433333333327E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E27" s="2">
+        <f>AVERAGE(exp2_details!G75,exp2_details!G78,exp2_details!G81)</f>
+        <v>1522.7505900000003</v>
+      </c>
+      <c r="F27" s="2">
+        <f>AVERAGE(exp2_details!H75,exp2_details!H78,exp2_details!H81)</f>
+        <v>11.537362133333332</v>
+      </c>
+      <c r="G27" s="2">
+        <f>AVERAGE(exp2_details!I75,exp2_details!I78,exp2_details!I81)</f>
+        <v>16752181</v>
+      </c>
+      <c r="H27" s="2">
+        <f>AVERAGE(exp2_details!J75,exp2_details!J78,exp2_details!J81)</f>
+        <v>28.515625</v>
+      </c>
+      <c r="I27" s="38">
+        <f>(F27/100000)</f>
+        <v>1.1537362133333332E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E28" s="2">
+        <f>AVERAGE(exp2_details!G76,exp2_details!G79,exp2_details!G82)</f>
+        <v>924.60650066666665</v>
+      </c>
+      <c r="F28" s="2">
+        <f>AVERAGE(exp2_details!H76,exp2_details!H79,exp2_details!H82)</f>
+        <v>26.049262166666665</v>
+      </c>
+      <c r="G28" s="2">
+        <f>AVERAGE(exp2_details!I76,exp2_details!I79,exp2_details!I82)</f>
+        <v>831226.3517</v>
+      </c>
+      <c r="H28" s="2">
+        <f>AVERAGE(exp2_details!J76,exp2_details!J79,exp2_details!J82)</f>
+        <v>2846.7031243333331</v>
+      </c>
+      <c r="I28" s="38">
+        <f>(F28/100000)</f>
+        <v>2.6049262166666663E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="26" t="s">
         <v>9</v>
@@ -9156,36 +9689,84 @@
       <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="2">
+        <f>AVERAGE(exp2_details!G83,exp2_details!G86,exp2_details!G89)</f>
+        <v>123.68466666666666</v>
+      </c>
+      <c r="F29" s="2">
+        <f>AVERAGE(exp2_details!H83,exp2_details!H86,exp2_details!H89)</f>
+        <v>66.55916666666667</v>
+      </c>
+      <c r="G29" s="2">
+        <f>AVERAGE(exp2_details!I83,exp2_details!I86,exp2_details!I89)</f>
+        <v>3.32755E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <f>AVERAGE(exp2_details!J83,exp2_details!J86,exp2_details!J89)</f>
+        <v>444583</v>
+      </c>
+      <c r="I29" s="38">
+        <f>(F29/1000000)</f>
+        <v>6.6559166666666671E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E30" s="2">
+        <f>AVERAGE(exp2_details!G84,exp2_details!G87,exp2_details!G90)</f>
+        <v>13611.683876597965</v>
+      </c>
+      <c r="F30" s="2">
+        <f>AVERAGE(exp2_details!H84,exp2_details!H87,exp2_details!H90)</f>
+        <v>120.974112196673</v>
+      </c>
+      <c r="G30" s="2">
+        <f>AVERAGE(exp2_details!I84,exp2_details!I87,exp2_details!I90)</f>
+        <v>136.29747166666667</v>
+      </c>
+      <c r="H30" s="2">
+        <f>AVERAGE(exp2_details!J84,exp2_details!J87,exp2_details!J90)</f>
+        <v>28.515625</v>
+      </c>
+      <c r="I30" s="38">
+        <f>(F30/1000000)</f>
+        <v>1.2097411219667301E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E31" s="2">
+        <f>AVERAGE(exp2_details!G85,exp2_details!G88,exp2_details!G91)</f>
+        <v>8872.8562930053577</v>
+      </c>
+      <c r="F31" s="2">
+        <f>AVERAGE(exp2_details!H85,exp2_details!H88,exp2_details!H91)</f>
+        <v>272.63537246997765</v>
+      </c>
+      <c r="G31" s="2">
+        <f>AVERAGE(exp2_details!I85,exp2_details!I88,exp2_details!I91)</f>
+        <v>6438.1753916666676</v>
+      </c>
+      <c r="H31" s="2">
+        <f>AVERAGE(exp2_details!J85,exp2_details!J88,exp2_details!J91)</f>
+        <v>16862.466162500001</v>
+      </c>
+      <c r="I31" s="38">
+        <f>(F31/1000000)</f>
+        <v>2.7263537246997768E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="26" t="s">
         <v>15</v>
@@ -9196,36 +9777,84 @@
       <c r="D32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E32" s="2">
+        <f>AVERAGE(exp2_details!G92,exp2_details!G95,exp2_details!G98)</f>
+        <v>135.874</v>
+      </c>
+      <c r="F32" s="2">
+        <f>AVERAGE(exp2_details!H92,exp2_details!H95,exp2_details!H98)</f>
+        <v>67.284233333333319</v>
+      </c>
+      <c r="G32" s="2">
+        <f>AVERAGE(exp2_details!I92,exp2_details!I95,exp2_details!I98)</f>
+        <v>1.0250000000000001E-3</v>
+      </c>
+      <c r="H32" s="2">
+        <f>AVERAGE(exp2_details!J92,exp2_details!J95,exp2_details!J98)</f>
+        <v>438666</v>
+      </c>
+      <c r="I32" s="38">
+        <f>(F32/1000000)</f>
+        <v>6.7284233333333315E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E33" s="2">
+        <f>AVERAGE(exp2_details!G93,exp2_details!G96,exp2_details!G99)</f>
+        <v>307.69271799999996</v>
+      </c>
+      <c r="F33" s="2">
+        <f>AVERAGE(exp2_details!H93,exp2_details!H96,exp2_details!H99)</f>
+        <v>175.33770666666669</v>
+      </c>
+      <c r="G33" s="2">
+        <f>AVERAGE(exp2_details!I93,exp2_details!I96,exp2_details!I99)</f>
+        <v>1268107500</v>
+      </c>
+      <c r="H33" s="2">
+        <f>AVERAGE(exp2_details!J93,exp2_details!J96,exp2_details!J99)</f>
+        <v>28.515625</v>
+      </c>
+      <c r="I33" s="38">
+        <f>(F33/1000000)</f>
+        <v>1.7533770666666669E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E34" s="2">
+        <f>AVERAGE(exp2_details!G94,exp2_details!G97,exp2_details!G100)</f>
+        <v>1242.1289066666668</v>
+      </c>
+      <c r="F34" s="2">
+        <f>AVERAGE(exp2_details!H94,exp2_details!H97,exp2_details!H100)</f>
+        <v>438.26159100000001</v>
+      </c>
+      <c r="G34" s="2">
+        <f>AVERAGE(exp2_details!I94,exp2_details!I97,exp2_details!I100)</f>
+        <v>18790922.954666667</v>
+      </c>
+      <c r="H34" s="2">
+        <f>AVERAGE(exp2_details!J94,exp2_details!J97,exp2_details!J100)</f>
+        <v>6293.4609400000008</v>
+      </c>
+      <c r="I34" s="38">
+        <f>(F34/1000000)</f>
+        <v>4.3826159100000003E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="26" t="s">
         <v>14</v>
@@ -9236,34 +9865,82 @@
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E35" s="2">
+        <f>AVERAGE(exp2_details!G101,exp2_details!G104,exp2_details!G107)</f>
+        <v>99.203034600000009</v>
+      </c>
+      <c r="F35" s="2">
+        <f>AVERAGE(exp2_details!H101,exp2_details!H104,exp2_details!H107)</f>
+        <v>67.681064666666671</v>
+      </c>
+      <c r="G35" s="2">
+        <f>AVERAGE(exp2_details!I101,exp2_details!I104,exp2_details!I107)</f>
+        <v>3.8613538333333337</v>
+      </c>
+      <c r="H35" s="2">
+        <f>AVERAGE(exp2_details!J101,exp2_details!J104,exp2_details!J107)</f>
+        <v>331630.45566666668</v>
+      </c>
+      <c r="I35" s="38">
+        <f>(F35/1000000)</f>
+        <v>6.7681064666666666E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E36" s="2">
+        <f>AVERAGE(exp2_details!G102,exp2_details!G105,exp2_details!G108)</f>
+        <v>16677.435566666667</v>
+      </c>
+      <c r="F36" s="2">
+        <f>AVERAGE(exp2_details!H102,exp2_details!H105,exp2_details!H108)</f>
+        <v>116.99595033333333</v>
+      </c>
+      <c r="G36" s="2">
+        <f>AVERAGE(exp2_details!I102,exp2_details!I105,exp2_details!I108)</f>
+        <v>1675484449.3333333</v>
+      </c>
+      <c r="H36" s="2">
+        <f>AVERAGE(exp2_details!J102,exp2_details!J105,exp2_details!J108)</f>
+        <v>28.515625</v>
+      </c>
+      <c r="I36" s="38">
+        <f>(F36/1000000)</f>
+        <v>1.1699595033333332E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
       <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="E37" s="2">
+        <f>AVERAGE(exp2_details!G103,exp2_details!G106,exp2_details!G109)</f>
+        <v>9141.0967166666651</v>
+      </c>
+      <c r="F37" s="2">
+        <f>AVERAGE(exp2_details!H103,exp2_details!H106,exp2_details!H109)</f>
+        <v>265.768981</v>
+      </c>
+      <c r="G37" s="2">
+        <f>AVERAGE(exp2_details!I103,exp2_details!I106,exp2_details!I109)</f>
+        <v>1611797.93</v>
+      </c>
+      <c r="H37" s="2">
+        <f>AVERAGE(exp2_details!J103,exp2_details!J106,exp2_details!J109)</f>
+        <v>22271.856766666664</v>
+      </c>
+      <c r="I37" s="38">
+        <f>(F37/1000000)</f>
+        <v>2.6576898099999998E-4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -9296,4 +9973,18 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C65B17-69F2-A143-B30A-D1D5D86960F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>